--- a/D2_refereestats.xlsx
+++ b/D2_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2194307F-C84A-4458-8446-11F13A2C4FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B6575-3BB5-4419-BA06-F5BFF4A1A2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,8 +328,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,24 +647,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,35 +709,35 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>780</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>60</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>12225</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>940.38461538461536</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>10200</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>784.61538461538464</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>44.46153846153846</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>39.615384615384613</v>
       </c>
-      <c r="L2">
-        <v>26.923076923076923</v>
+      <c r="L2" s="1">
+        <v>29.307692307692307</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -746,35 +747,35 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>725</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>65.909090909090907</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>12950</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1177.2727272727273</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>8050</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>731.81818181818187</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>28.818181818181817</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>48.18181818181818</v>
       </c>
-      <c r="L3">
-        <v>24.09090909090909</v>
+      <c r="L3" s="1">
+        <v>29.90909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -784,34 +785,34 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>415</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>37.727272727272727</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3650</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>331.81818181818181</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>2800</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>254.54545454545453</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>41.909090909090907</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>35.454545454545453</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>28</v>
       </c>
     </row>
@@ -822,34 +823,34 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>655</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>59.545454545454547</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>10200</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>927.27272727272725</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>7500</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>681.81818181818187</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>39.18181818181818</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>41.454545454545453</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>26</v>
       </c>
     </row>
@@ -860,35 +861,35 @@
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>510</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>46.363636363636367</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>8350</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>759.09090909090912</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>2750</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>250</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>27.272727272727273</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>49.090909090909093</v>
       </c>
-      <c r="L6">
-        <v>22.90909090909091</v>
+      <c r="L6" s="1">
+        <v>36.636363636363633</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -898,35 +899,35 @@
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>305</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>30.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1950</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>195</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>1000</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>55.5</v>
       </c>
-      <c r="L7">
-        <v>26.5</v>
+      <c r="L7" s="1">
+        <v>42.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -936,35 +937,35 @@
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>465</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>46.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>6050</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>605</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>3600</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>360</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>47.7</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>33</v>
       </c>
-      <c r="L8">
-        <v>30.2</v>
+      <c r="L8" s="1">
+        <v>38.9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,35 +975,35 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>50</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6050</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>605</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>5600</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>560</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>38.299999999999997</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>45.1</v>
       </c>
-      <c r="L9">
-        <v>31.8</v>
+      <c r="L9" s="1">
+        <v>36.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1012,35 +1013,35 @@
       <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>380</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>38</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>4000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>400</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>2900</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>290</v>
       </c>
-      <c r="J10">
-        <v>44.6</v>
-      </c>
-      <c r="K10">
-        <v>31.3</v>
-      </c>
-      <c r="L10">
-        <v>27.7</v>
+      <c r="J10" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L10" s="1">
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1050,35 +1051,35 @@
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>385</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>38.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2200</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>220</v>
       </c>
-      <c r="H11">
-        <v>2400</v>
-      </c>
-      <c r="I11">
-        <v>240</v>
-      </c>
-      <c r="J11">
-        <v>32.1</v>
-      </c>
-      <c r="K11">
-        <v>21.5</v>
-      </c>
-      <c r="L11">
-        <v>17.2</v>
+      <c r="H11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>300</v>
+      </c>
+      <c r="J11" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="K11" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,35 +1089,35 @@
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>50</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>6050</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>605</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>4850</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>485</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>33.5</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>43.6</v>
       </c>
-      <c r="L12">
-        <v>24.7</v>
+      <c r="L12" s="1">
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1126,34 +1127,34 @@
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>525</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>58.333333333333336</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>6900</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>766.66666666666663</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>7400</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>822.22222222222217</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>32.555555555555557</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>34.555555555555557</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>21.888888888888889</v>
       </c>
     </row>
@@ -1164,35 +1165,35 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>430</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>47.777777777777779</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>4600</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>511.11111111111109</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>3550</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>394.44444444444446</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>55.666666666666664</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>52.888888888888886</v>
       </c>
-      <c r="L14">
-        <v>44.777777777777779</v>
+      <c r="L14" s="1">
+        <v>46.777777777777779</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1202,35 +1203,35 @@
       <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>330</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>36.666666666666664</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2600</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>288.88888888888891</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>2400</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>266.66666666666669</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>27.666666666666668</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>34.444444444444443</v>
       </c>
-      <c r="L15">
-        <v>11.777777777777779</v>
+      <c r="L15" s="1">
+        <v>41.777777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1240,35 +1241,35 @@
       <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>455</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>50.555555555555557</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>5800</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>644.44444444444446</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>5650</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>627.77777777777783</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>31.888888888888889</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>37.555555555555557</v>
       </c>
-      <c r="L16">
-        <v>19.666666666666668</v>
+      <c r="L16" s="1">
+        <v>25.888888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1278,35 +1279,35 @@
       <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>510</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>56.666666666666664</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>6900</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>766.66666666666663</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>4750</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>527.77777777777783</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>44</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>33.555555555555557</v>
       </c>
-      <c r="L17">
-        <v>26.444444444444443</v>
+      <c r="L17" s="1">
+        <v>28.777777777777779</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1316,35 +1317,35 @@
       <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>420</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>46.666666666666664</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>4700</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>522.22222222222217</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>4300</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>477.77777777777777</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>31.222222222222221</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>41.111111111111114</v>
       </c>
-      <c r="L18">
-        <v>24.888888888888889</v>
+      <c r="L18" s="1">
+        <v>30.111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1354,34 +1355,34 @@
       <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>515</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>57.222222222222221</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>6400</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>711.11111111111109</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>3900</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>433.33333333333331</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>46.333333333333336</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>48.666666666666664</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>28.444444444444443</v>
       </c>
     </row>
@@ -1392,35 +1393,35 @@
       <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>410</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>45.555555555555557</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>3800</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>422.22222222222223</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>2300</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>255.55555555555554</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>37.111111111111114</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>25.222222222222221</v>
       </c>
-      <c r="L20">
-        <v>19.888888888888889</v>
+      <c r="L20" s="1">
+        <v>35.222222222222221</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,34 +1431,34 @@
       <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>460</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>57.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>7300</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>912.5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>4250</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>531.25</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>39.25</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>43.875</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>28.75</v>
       </c>
     </row>
@@ -1468,34 +1469,34 @@
       <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>410</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>51.25</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>5000</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>625</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>2500</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>312.5</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>54.75</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>41.25</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>40</v>
       </c>
     </row>
@@ -1506,34 +1507,34 @@
       <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>420</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>52.5</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>4800</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>600</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>2900</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>362.5</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>58.625</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>43</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>35.125</v>
       </c>
     </row>
@@ -1544,35 +1545,35 @@
       <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>360</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>45</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>3450</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>431.25</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>4200</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>525</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>44.625</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>44.5</v>
       </c>
-      <c r="L24">
-        <v>30.625</v>
+      <c r="L24" s="1">
+        <v>38.5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1582,35 +1583,35 @@
       <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>380</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>47.5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>3150</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>393.75</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>2100</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>262.5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>45.5</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>29.75</v>
       </c>
-      <c r="L25">
-        <v>25.625</v>
+      <c r="L25" s="1">
+        <v>37.375</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1620,35 +1621,35 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>315</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>39.375</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>3200</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>400</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>2700</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>337.5</v>
       </c>
-      <c r="J26">
-        <v>27.75</v>
-      </c>
-      <c r="K26">
-        <v>43.875</v>
-      </c>
-      <c r="L26">
-        <v>16.625</v>
+      <c r="J26" s="1">
+        <v>37.875</v>
+      </c>
+      <c r="K26" s="1">
+        <v>50.25</v>
+      </c>
+      <c r="L26" s="1">
+        <v>34.25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1658,35 +1659,35 @@
       <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>7</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>235</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>33.571428571428569</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>1500</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>214.28571428571428</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>1100</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>157.14285714285714</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>33.857142857142854</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>43.428571428571431</v>
       </c>
-      <c r="L27">
-        <v>17.857142857142858</v>
+      <c r="L27" s="1">
+        <v>48.142857142857146</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,35 +1697,35 @@
       <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>255</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>42.5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>3675</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>612.5</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1000</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>166.66666666666666</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>52</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>35.5</v>
       </c>
-      <c r="L28">
-        <v>31.666666666666668</v>
+      <c r="L28" s="1">
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,34 +1735,34 @@
       <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>6</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>385</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>64.166666666666671</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>5650</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>941.66666666666663</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>4600</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>766.66666666666663</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>33</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>47.166666666666664</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>28.833333333333332</v>
       </c>
     </row>
@@ -1772,35 +1773,35 @@
       <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>255</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>42.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>3350</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>558.33333333333337</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>2000</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>333.33333333333331</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>37.5</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>35.833333333333336</v>
       </c>
-      <c r="L30">
-        <v>27</v>
+      <c r="L30" s="1">
+        <v>33.666666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,35 +1811,35 @@
       <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>225</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>37.5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>1450</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>241.66666666666666</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>500</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>83.333333333333329</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>38.166666666666664</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>48.833333333333336</v>
       </c>
-      <c r="L31">
-        <v>29.833333333333332</v>
+      <c r="L31" s="1">
+        <v>43.666666666666664</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,34 +1849,34 @@
       <c r="B32" t="s">
         <v>81</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>200</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>40</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>2000</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>400</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>1800</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>360</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>43.2</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>40.799999999999997</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>27.2</v>
       </c>
     </row>
@@ -1886,34 +1887,34 @@
       <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>320</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>64</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>4950</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>990</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>3250</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>650</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>54.2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>41.6</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>40.4</v>
       </c>
     </row>
@@ -1924,34 +1925,34 @@
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>290</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>58</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>3550</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>710</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>1000</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>200</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>64.8</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>46.2</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>45.2</v>
       </c>
     </row>
@@ -1962,35 +1963,35 @@
       <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>265</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>53</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>3600</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>720</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>1700</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>340</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>56</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>35.4</v>
       </c>
-      <c r="L35">
-        <v>30.8</v>
+      <c r="L35" s="1">
+        <v>37.4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,34 +2001,34 @@
       <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>260</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>65</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>3650</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>912.5</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>2100</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>525</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>38.75</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>46.5</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>18.75</v>
       </c>
     </row>
@@ -2038,34 +2039,34 @@
       <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>230</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>57.5</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>3250</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>812.5</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>1500</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>375</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>27.75</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>62.5</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>27.75</v>
       </c>
     </row>
@@ -2076,35 +2077,35 @@
       <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>130</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>43.333333333333336</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>1600</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>533.33333333333337</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>200</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>66.666666666666671</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>39</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>66</v>
       </c>
-      <c r="L38">
-        <v>39</v>
+      <c r="L38" s="1">
+        <v>48.666666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,35 +2115,35 @@
       <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>60</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>20</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>300</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>100</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>200</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>66.666666666666671</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>63.666666666666664</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>14.333333333333334</v>
       </c>
-      <c r="L39">
-        <v>14.333333333333334</v>
+      <c r="L39" s="1">
+        <v>44.333333333333336</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2152,34 +2153,34 @@
       <c r="B40" t="s">
         <v>89</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>100</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>50</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>1000</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>500</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>1200</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>600</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>34.5</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>31</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>13</v>
       </c>
     </row>
@@ -2190,35 +2191,35 @@
       <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>60</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>30</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>400</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>200</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>75</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>45</v>
       </c>
-      <c r="L41">
-        <v>45</v>
+      <c r="L41" s="1">
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>

--- a/D2_refereestats.xlsx
+++ b/D2_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Referee</t>
   </si>
@@ -122,33 +122,57 @@
     <t>23</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>Eric-Dominic Weisbach</t>
+  </si>
+  <si>
     <t>Lukas Benen</t>
   </si>
   <si>
+    <t>Michael Bacher</t>
+  </si>
+  <si>
     <t>Tom Bauer</t>
   </si>
   <si>
+    <t>Richard Hempel</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
     <t>Florian Heft</t>
   </si>
   <si>
     <t>Max Burda</t>
   </si>
   <si>
-    <t>Eric-Dominic Weisbach</t>
-  </si>
-  <si>
     <t>Christian Dingert</t>
   </si>
   <si>
     <t>Patrick Schwengers</t>
   </si>
   <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
     <t>Tobias Welz</t>
   </si>
   <si>
@@ -167,6 +191,9 @@
     <t>Patrick Alt</t>
   </si>
   <si>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
     <t>Felix Prigan</t>
   </si>
   <si>
@@ -176,16 +203,13 @@
     <t>Daniel Siebert</t>
   </si>
   <si>
-    <t>Michael Bacher</t>
-  </si>
-  <si>
-    <t>Richard Hempel</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
     <t>Florian Exner</t>
+  </si>
+  <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
+    <t>Robin Braun</t>
   </si>
   <si>
     <t>Sven Jablonski</t>
@@ -286,7 +310,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
         <v>24.0</v>
@@ -330,43 +354,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0</v>
+        <v>385.0</v>
       </c>
       <c r="E3" t="n">
-        <v>54.166666666666664</v>
+        <v>55.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5300.0</v>
+        <v>6100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>883.3333333333334</v>
+        <v>871.4285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>4300.0</v>
+        <v>5100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>716.6666666666666</v>
+        <v>728.5714285714286</v>
       </c>
       <c r="J3" t="n">
-        <v>34.0</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="K3" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="L3" t="n">
-        <v>28.333333333333332</v>
+        <v>25.571428571428573</v>
       </c>
       <c r="M3" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9230769230769231</v>
+        <v>2.0052083333333335</v>
       </c>
     </row>
     <row r="4">
@@ -374,43 +398,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1200.0</v>
+        <v>700.0</v>
       </c>
       <c r="G4" t="n">
-        <v>600.0</v>
+        <v>350.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1000.0</v>
+        <v>400.0</v>
       </c>
       <c r="I4" t="n">
-        <v>500.0</v>
+        <v>200.0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.5</v>
+        <v>45.5</v>
       </c>
       <c r="K4" t="n">
-        <v>33.0</v>
+        <v>60.5</v>
       </c>
       <c r="L4" t="n">
-        <v>33.0</v>
+        <v>45.5</v>
       </c>
       <c r="M4" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="5">
@@ -418,43 +442,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="F5" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>600.0</v>
       </c>
-      <c r="G5" t="n">
-        <v>300.0</v>
-      </c>
       <c r="H5" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I5" t="n">
-        <v>300.0</v>
+        <v>500.0</v>
       </c>
       <c r="J5" t="n">
-        <v>50.5</v>
+        <v>56.5</v>
       </c>
       <c r="K5" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="L5" t="n">
-        <v>22.5</v>
+        <v>33.0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5555555555555556</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -462,43 +486,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>190.0</v>
+        <v>185.0</v>
       </c>
       <c r="E6" t="n">
-        <v>95.0</v>
+        <v>92.5</v>
       </c>
       <c r="F6" t="n">
-        <v>4300.0</v>
+        <v>4200.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2150.0</v>
+        <v>2100.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1800.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J6" t="n">
-        <v>50.5</v>
+        <v>16.5</v>
       </c>
       <c r="K6" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="L6" t="n">
-        <v>21.0</v>
+        <v>16.5</v>
       </c>
       <c r="M6" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>3.3636363636363638</v>
       </c>
     </row>
     <row r="7">
@@ -506,43 +530,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="F7" t="n">
         <v>600.0</v>
       </c>
       <c r="G7" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="H7" t="n">
         <v>600.0</v>
       </c>
       <c r="I7" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.0</v>
+        <v>50.5</v>
       </c>
       <c r="K7" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.0</v>
+        <v>22.5</v>
       </c>
       <c r="M7" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.125</v>
+        <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="8">
@@ -550,43 +574,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>165.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>82.5</v>
       </c>
       <c r="F8" t="n">
-        <v>300.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G8" t="n">
-        <v>300.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>1050.0</v>
       </c>
       <c r="J8" t="n">
-        <v>52.0</v>
+        <v>20.0</v>
       </c>
       <c r="K8" t="n">
-        <v>75.0</v>
+        <v>37.5</v>
       </c>
       <c r="L8" t="n">
-        <v>52.0</v>
+        <v>20.0</v>
       </c>
       <c r="M8" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7391304347826086</v>
+        <v>3.36734693877551</v>
       </c>
     </row>
     <row r="9">
@@ -594,43 +618,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="n">
-        <v>400.0</v>
+        <v>100.0</v>
       </c>
       <c r="G9" t="n">
-        <v>400.0</v>
+        <v>50.0</v>
       </c>
       <c r="H9" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="I9" t="n">
-        <v>400.0</v>
+        <v>100.0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0</v>
+        <v>40.5</v>
       </c>
       <c r="K9" t="n">
-        <v>11.0</v>
+        <v>49.5</v>
       </c>
       <c r="L9" t="n">
-        <v>11.0</v>
+        <v>43.5</v>
       </c>
       <c r="M9" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="10">
@@ -638,43 +662,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0</v>
+        <v>190.0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0</v>
+        <v>95.0</v>
       </c>
       <c r="F10" t="n">
-        <v>600.0</v>
+        <v>4300.0</v>
       </c>
       <c r="G10" t="n">
-        <v>600.0</v>
+        <v>2150.0</v>
       </c>
       <c r="H10" t="n">
-        <v>600.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I10" t="n">
-        <v>600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.0</v>
+        <v>50.5</v>
       </c>
       <c r="K10" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="L10" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="M10" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.272727272727273</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -694,31 +718,31 @@
         <v>50.0</v>
       </c>
       <c r="F11" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="H11" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="I11" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
       <c r="K11" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
       <c r="M11" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.272727272727273</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="12">
@@ -726,43 +750,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="E12" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="K12" t="n">
-        <v>81.0</v>
+        <v>11.0</v>
       </c>
       <c r="L12" t="n">
-        <v>81.0</v>
+        <v>11.0</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5263157894736842</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -770,43 +794,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F13" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="G13" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="H13" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
       <c r="I13" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="K13" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="L13" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="M13" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.4</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="14">
@@ -814,43 +838,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="E14" t="n">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1800.0</v>
+        <v>900.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1800.0</v>
+        <v>900.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1400.0</v>
+        <v>800.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1400.0</v>
+        <v>800.0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="K14" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="L14" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="M14" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.903225806451613</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -858,43 +882,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="E15" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1500.0</v>
+        <v>400.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1500.0</v>
+        <v>400.0</v>
       </c>
       <c r="H15" t="n">
-        <v>700.0</v>
+        <v>400.0</v>
       </c>
       <c r="I15" t="n">
-        <v>700.0</v>
+        <v>400.0</v>
       </c>
       <c r="J15" t="n">
-        <v>59.0</v>
+        <v>3.0</v>
       </c>
       <c r="K15" t="n">
-        <v>11.0</v>
+        <v>43.0</v>
       </c>
       <c r="L15" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="M15" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.857142857142857</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="16">
@@ -902,43 +926,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
       </c>
       <c r="D16" t="n">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" t="n">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
       <c r="F16" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.0</v>
+        <v>81.0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.0</v>
+        <v>81.0</v>
       </c>
       <c r="M16" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3333333333333335</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="17">
@@ -946,43 +970,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="E17" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="F17" t="n">
-        <v>700.0</v>
+        <v>900.0</v>
       </c>
       <c r="G17" t="n">
-        <v>700.0</v>
+        <v>900.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1600.0</v>
+        <v>500.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1600.0</v>
+        <v>500.0</v>
       </c>
       <c r="J17" t="n">
-        <v>97.0</v>
+        <v>40.0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.0</v>
+        <v>52.0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.0</v>
+        <v>40.0</v>
       </c>
       <c r="M17" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4782608695652173</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
@@ -990,43 +1014,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>135.0</v>
+        <v>90.0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0</v>
+        <v>90.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4250.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4250.0</v>
+        <v>1800.0</v>
       </c>
       <c r="H18" t="n">
-        <v>2300.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2300.0</v>
+        <v>1400.0</v>
       </c>
       <c r="J18" t="n">
-        <v>21.0</v>
+        <v>53.0</v>
       </c>
       <c r="K18" t="n">
-        <v>46.0</v>
+        <v>16.0</v>
       </c>
       <c r="L18" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="M18" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="N18" t="n">
-        <v>5.625</v>
+        <v>2.903225806451613</v>
       </c>
     </row>
     <row r="19">
@@ -1034,43 +1058,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>700.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>700.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="M19" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="20">
@@ -1078,43 +1102,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="E20" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1200.0</v>
+        <v>900.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1200.0</v>
+        <v>900.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="J20" t="n">
-        <v>16.0</v>
+        <v>62.0</v>
       </c>
       <c r="K20" t="n">
-        <v>37.0</v>
+        <v>7.0</v>
       </c>
       <c r="L20" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="M20" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5925925925925926</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="21">
@@ -1122,43 +1146,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="E21" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="L21" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="M21" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.0434782608695654</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="22">
@@ -1166,43 +1190,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
       </c>
       <c r="D22" t="n">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
       <c r="E22" t="n">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
       <c r="F22" t="n">
-        <v>100.0</v>
+        <v>700.0</v>
       </c>
       <c r="G22" t="n">
-        <v>100.0</v>
+        <v>700.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0</v>
+        <v>97.0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.0</v>
+        <v>5.0</v>
       </c>
       <c r="L22" t="n">
-        <v>81.0</v>
+        <v>5.0</v>
       </c>
       <c r="M22" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.25</v>
+        <v>3.4782608695652173</v>
       </c>
     </row>
     <row r="23">
@@ -1210,43 +1234,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>50.0</v>
+        <v>135.0</v>
       </c>
       <c r="E23" t="n">
-        <v>50.0</v>
+        <v>135.0</v>
       </c>
       <c r="F23" t="n">
-        <v>600.0</v>
+        <v>4250.0</v>
       </c>
       <c r="G23" t="n">
-        <v>600.0</v>
+        <v>4250.0</v>
       </c>
       <c r="H23" t="n">
-        <v>600.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I23" t="n">
-        <v>600.0</v>
+        <v>2300.0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="K23" t="n">
-        <v>29.0</v>
+        <v>46.0</v>
       </c>
       <c r="L23" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="M23" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.272727272727273</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="24">
@@ -1254,42 +1278,218 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.272727272727273</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
         <v>60.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E27" t="n">
         <v>60.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F27" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H27" t="n">
         <v>800.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I27" t="n">
         <v>800.0</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="J27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
         <v>67.0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K28" t="n">
         <v>53.0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>53.0</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M28" t="n">
         <v>23.0</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N28" t="n">
         <v>2.608695652173913</v>
       </c>
     </row>

--- a/D2_refereestats.xlsx
+++ b/D2_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Referee</t>
   </si>
@@ -134,31 +134,76 @@
     <t>27</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>Michael Bacher</t>
+  </si>
+  <si>
+    <t>Tom Bauer</t>
+  </si>
+  <si>
     <t>Eric-Dominic Weisbach</t>
   </si>
   <si>
+    <t>Richard Hempel</t>
+  </si>
+  <si>
+    <t>Florian Lechner</t>
+  </si>
+  <si>
+    <t>Robert Kampka</t>
+  </si>
+  <si>
+    <t>Florian Exner</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Robin Braun</t>
+  </si>
+  <si>
+    <t>Florian Heft</t>
+  </si>
+  <si>
     <t>Lukas Benen</t>
   </si>
   <si>
-    <t>Michael Bacher</t>
-  </si>
-  <si>
-    <t>Tom Bauer</t>
-  </si>
-  <si>
-    <t>Richard Hempel</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
-    <t>Florian Heft</t>
+    <t>Lars Erbst</t>
+  </si>
+  <si>
+    <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Felix Brych</t>
+  </si>
+  <si>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
+    <t>Felix Prigan</t>
   </si>
   <si>
     <t>Max Burda</t>
@@ -167,52 +212,31 @@
     <t>Christian Dingert</t>
   </si>
   <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Bastian Dankert</t>
+  </si>
+  <si>
     <t>Patrick Schwengers</t>
   </si>
   <si>
-    <t>Florian Badstübner</t>
+    <t>Daniel Schlager</t>
   </si>
   <si>
     <t>Tobias Welz</t>
   </si>
   <si>
-    <t>Felix Brych</t>
-  </si>
-  <si>
-    <t>Florian Lechner</t>
-  </si>
-  <si>
-    <t>Lars Erbst</t>
-  </si>
-  <si>
-    <t>Robert Kampka</t>
-  </si>
-  <si>
-    <t>Patrick Alt</t>
-  </si>
-  <si>
-    <t>Nicolas Winter</t>
-  </si>
-  <si>
-    <t>Felix Prigan</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
+    <t>Frank Willenborg</t>
   </si>
   <si>
     <t>Daniel Siebert</t>
   </si>
   <si>
-    <t>Florian Exner</t>
+    <t>Martin Petersen</t>
   </si>
   <si>
     <t>Matthias Jöllenbeck</t>
-  </si>
-  <si>
-    <t>Robin Braun</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
   </si>
 </sst>
 </file>
@@ -310,7 +334,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
         <v>24.0</v>
@@ -354,43 +378,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.0</v>
+        <v>535.0</v>
       </c>
       <c r="E3" t="n">
-        <v>55.0</v>
+        <v>59.44444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>6100.0</v>
+        <v>7600.0</v>
       </c>
       <c r="G3" t="n">
-        <v>871.4285714285714</v>
+        <v>844.4444444444445</v>
       </c>
       <c r="H3" t="n">
-        <v>5100.0</v>
+        <v>6400.0</v>
       </c>
       <c r="I3" t="n">
-        <v>728.5714285714286</v>
+        <v>711.1111111111111</v>
       </c>
       <c r="J3" t="n">
-        <v>30.428571428571427</v>
+        <v>34.888888888888886</v>
       </c>
       <c r="K3" t="n">
-        <v>30.0</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="L3" t="n">
-        <v>25.571428571428573</v>
+        <v>27.0</v>
       </c>
       <c r="M3" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.0052083333333335</v>
+        <v>2.2384937238493725</v>
       </c>
     </row>
     <row r="4">
@@ -398,43 +422,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.0</v>
+        <v>245.0</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0</v>
+        <v>81.66666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>700.0</v>
+        <v>5100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>350.0</v>
+        <v>1700.0</v>
       </c>
       <c r="H4" t="n">
-        <v>400.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I4" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="K4" t="n">
-        <v>60.5</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="L4" t="n">
-        <v>45.5</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="M4" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4545454545454546</v>
+        <v>3.712121212121212</v>
       </c>
     </row>
     <row r="5">
@@ -442,43 +466,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="E5" t="n">
         <v>50.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1200.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G5" t="n">
-        <v>600.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1000.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I5" t="n">
-        <v>500.0</v>
+        <v>700.0</v>
       </c>
       <c r="J5" t="n">
-        <v>56.5</v>
+        <v>49.666666666666664</v>
       </c>
       <c r="K5" t="n">
-        <v>33.0</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="L5" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="M5" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="6">
@@ -486,43 +510,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>185.0</v>
+        <v>120.0</v>
       </c>
       <c r="E6" t="n">
-        <v>92.5</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4200.0</v>
+        <v>700.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2100.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>2200.0</v>
+        <v>400.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1100.0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="J6" t="n">
-        <v>16.5</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="K6" t="n">
-        <v>39.0</v>
+        <v>60.666666666666664</v>
       </c>
       <c r="L6" t="n">
-        <v>16.5</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="M6" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3636363636363638</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="7">
@@ -530,43 +554,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.0</v>
+        <v>250.0</v>
       </c>
       <c r="E7" t="n">
-        <v>35.0</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>600.0</v>
+        <v>4350.0</v>
       </c>
       <c r="G7" t="n">
-        <v>300.0</v>
+        <v>1450.0</v>
       </c>
       <c r="H7" t="n">
-        <v>600.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I7" t="n">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="J7" t="n">
-        <v>50.5</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="K7" t="n">
-        <v>43.0</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="L7" t="n">
-        <v>22.5</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5555555555555556</v>
+        <v>3.289473684210526</v>
       </c>
     </row>
     <row r="8">
@@ -574,43 +598,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>165.0</v>
+        <v>110.0</v>
       </c>
       <c r="E8" t="n">
-        <v>82.5</v>
+        <v>55.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2700.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1350.0</v>
+        <v>650.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2100.0</v>
+        <v>900.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1050.0</v>
+        <v>450.0</v>
       </c>
       <c r="J8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="M8" t="n">
         <v>20.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>24.0</v>
-      </c>
       <c r="N8" t="n">
-        <v>3.36734693877551</v>
+        <v>2.682926829268293</v>
       </c>
     </row>
     <row r="9">
@@ -618,43 +642,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>60.0</v>
       </c>
       <c r="F9" t="n">
-        <v>100.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G9" t="n">
-        <v>50.0</v>
+        <v>900.0</v>
       </c>
       <c r="H9" t="n">
-        <v>200.0</v>
+        <v>700.0</v>
       </c>
       <c r="I9" t="n">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J9" t="n">
-        <v>40.5</v>
+        <v>72.5</v>
       </c>
       <c r="K9" t="n">
-        <v>49.5</v>
+        <v>34.5</v>
       </c>
       <c r="L9" t="n">
-        <v>43.5</v>
+        <v>34.5</v>
       </c>
       <c r="M9" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5151515151515151</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -662,43 +686,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>190.0</v>
+        <v>100.0</v>
       </c>
       <c r="E10" t="n">
-        <v>95.0</v>
+        <v>50.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4300.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2150.0</v>
+        <v>600.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1800.0</v>
+        <v>600.0</v>
       </c>
       <c r="J10" t="n">
-        <v>50.5</v>
+        <v>35.0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.0</v>
+        <v>42.5</v>
       </c>
       <c r="L10" t="n">
-        <v>21.0</v>
+        <v>30.5</v>
       </c>
       <c r="M10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="11">
@@ -706,43 +730,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" t="n">
         <v>50.0</v>
       </c>
       <c r="E11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G11" t="n">
         <v>50.0</v>
       </c>
-      <c r="F11" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>600.0</v>
-      </c>
       <c r="H11" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="I11" t="n">
-        <v>600.0</v>
+        <v>100.0</v>
       </c>
       <c r="J11" t="n">
-        <v>27.0</v>
+        <v>40.5</v>
       </c>
       <c r="K11" t="n">
-        <v>42.0</v>
+        <v>49.5</v>
       </c>
       <c r="L11" t="n">
-        <v>27.0</v>
+        <v>43.5</v>
       </c>
       <c r="M11" t="n">
         <v>16.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.125</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="12">
@@ -750,43 +774,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>40.0</v>
+        <v>135.0</v>
       </c>
       <c r="E12" t="n">
-        <v>40.0</v>
+        <v>67.5</v>
       </c>
       <c r="F12" t="n">
-        <v>400.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G12" t="n">
-        <v>400.0</v>
+        <v>1150.0</v>
       </c>
       <c r="H12" t="n">
-        <v>400.0</v>
+        <v>2150.0</v>
       </c>
       <c r="I12" t="n">
-        <v>400.0</v>
+        <v>1075.0</v>
       </c>
       <c r="J12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L12" t="n">
         <v>15.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.0</v>
-      </c>
       <c r="M12" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="13">
@@ -794,43 +818,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.0</v>
+        <v>190.0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.0</v>
+        <v>95.0</v>
       </c>
       <c r="F13" t="n">
-        <v>600.0</v>
+        <v>4300.0</v>
       </c>
       <c r="G13" t="n">
-        <v>600.0</v>
+        <v>2150.0</v>
       </c>
       <c r="H13" t="n">
-        <v>600.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I13" t="n">
-        <v>600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.0</v>
+        <v>50.5</v>
       </c>
       <c r="K13" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="L13" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="M13" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.272727272727273</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14">
@@ -838,43 +862,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="E14" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F14" t="n">
-        <v>900.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G14" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="H14" t="n">
-        <v>800.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I14" t="n">
-        <v>800.0</v>
+        <v>500.0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.0</v>
+        <v>56.5</v>
       </c>
       <c r="K14" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="L14" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="M14" t="n">
         <v>30.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.0</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -882,43 +906,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0</v>
+        <v>140.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="F15" t="n">
-        <v>400.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G15" t="n">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H15" t="n">
-        <v>400.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I15" t="n">
-        <v>400.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>33.5</v>
       </c>
       <c r="K15" t="n">
-        <v>43.0</v>
+        <v>31.5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="M15" t="n">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.272727272727273</v>
+        <v>2.121212121212121</v>
       </c>
     </row>
     <row r="16">
@@ -926,43 +950,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>10.0</v>
+        <v>135.0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0</v>
+        <v>67.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>1150.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1850.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>925.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>43.5</v>
       </c>
       <c r="K16" t="n">
-        <v>81.0</v>
+        <v>45.5</v>
       </c>
       <c r="L16" t="n">
-        <v>81.0</v>
+        <v>16.0</v>
       </c>
       <c r="M16" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5263157894736842</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="17">
@@ -970,43 +994,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>60.0</v>
+        <v>195.0</v>
       </c>
       <c r="E17" t="n">
-        <v>60.0</v>
+        <v>97.5</v>
       </c>
       <c r="F17" t="n">
-        <v>900.0</v>
+        <v>5050.0</v>
       </c>
       <c r="G17" t="n">
-        <v>900.0</v>
+        <v>2525.0</v>
       </c>
       <c r="H17" t="n">
-        <v>500.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I17" t="n">
-        <v>500.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.0</v>
+        <v>18.5</v>
       </c>
       <c r="K17" t="n">
-        <v>52.0</v>
+        <v>48.5</v>
       </c>
       <c r="L17" t="n">
-        <v>40.0</v>
+        <v>18.5</v>
       </c>
       <c r="M17" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>4.431818181818182</v>
       </c>
     </row>
     <row r="18">
@@ -1014,43 +1038,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>90.0</v>
+        <v>125.0</v>
       </c>
       <c r="E18" t="n">
-        <v>90.0</v>
+        <v>62.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1800.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1800.0</v>
+        <v>850.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1400.0</v>
+        <v>550.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1400.0</v>
+        <v>275.0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.0</v>
+        <v>66.5</v>
       </c>
       <c r="K18" t="n">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="L18" t="n">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="M18" t="n">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.903225806451613</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="19">
@@ -1058,43 +1082,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>80.0</v>
+        <v>10.0</v>
       </c>
       <c r="E19" t="n">
-        <v>80.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>700.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>700.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="n">
-        <v>11.0</v>
+        <v>81.0</v>
       </c>
       <c r="L19" t="n">
-        <v>11.0</v>
+        <v>81.0</v>
       </c>
       <c r="M19" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.857142857142857</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="20">
@@ -1102,40 +1126,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="E20" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="F20" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G20" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H20" t="n">
-        <v>500.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I20" t="n">
-        <v>500.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.0</v>
+        <v>17.0</v>
       </c>
       <c r="K20" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="L20" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="M20" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="N20" t="n">
         <v>3.3333333333333335</v>
@@ -1146,7 +1170,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -1158,10 +1182,10 @@
         <v>80.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1500.0</v>
+        <v>700.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1500.0</v>
+        <v>700.0</v>
       </c>
       <c r="H21" t="n">
         <v>1600.0</v>
@@ -1170,19 +1194,19 @@
         <v>1600.0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.0</v>
+        <v>97.0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="L21" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="M21" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3333333333333335</v>
+        <v>3.4782608695652173</v>
       </c>
     </row>
     <row r="22">
@@ -1190,43 +1214,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="F22" t="n">
-        <v>700.0</v>
+        <v>600.0</v>
       </c>
       <c r="G22" t="n">
-        <v>700.0</v>
+        <v>600.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1600.0</v>
+        <v>600.0</v>
       </c>
       <c r="I22" t="n">
-        <v>1600.0</v>
+        <v>600.0</v>
       </c>
       <c r="J22" t="n">
-        <v>97.0</v>
+        <v>27.0</v>
       </c>
       <c r="K22" t="n">
-        <v>5.0</v>
+        <v>42.0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
       <c r="M22" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.4782608695652173</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="23">
@@ -1234,43 +1258,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>135.0</v>
+        <v>40.0</v>
       </c>
       <c r="E23" t="n">
-        <v>135.0</v>
+        <v>40.0</v>
       </c>
       <c r="F23" t="n">
-        <v>4250.0</v>
+        <v>400.0</v>
       </c>
       <c r="G23" t="n">
-        <v>4250.0</v>
+        <v>400.0</v>
       </c>
       <c r="H23" t="n">
-        <v>2300.0</v>
+        <v>400.0</v>
       </c>
       <c r="I23" t="n">
-        <v>2300.0</v>
+        <v>400.0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="K23" t="n">
-        <v>46.0</v>
+        <v>11.0</v>
       </c>
       <c r="L23" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="M23" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.625</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -1278,43 +1302,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="M24" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -1322,43 +1346,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="E25" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="F25" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>38.0</v>
+        <v>59.0</v>
       </c>
       <c r="K25" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="n">
-        <v>29.0</v>
+        <v>59.0</v>
       </c>
       <c r="M25" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.272727272727273</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="26">
@@ -1366,43 +1390,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="E26" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F26" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="G26" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="J26" t="n">
-        <v>96.0</v>
+        <v>10.0</v>
       </c>
       <c r="K26" t="n">
-        <v>75.0</v>
+        <v>43.0</v>
       </c>
       <c r="L26" t="n">
-        <v>75.0</v>
+        <v>10.0</v>
       </c>
       <c r="M26" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="27">
@@ -1410,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -1422,31 +1446,31 @@
         <v>60.0</v>
       </c>
       <c r="F27" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H27" t="n">
         <v>900.0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>900.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>800.0</v>
-      </c>
       <c r="J27" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.0</v>
+        <v>41.0</v>
       </c>
       <c r="L27" t="n">
         <v>8.0</v>
       </c>
       <c r="M27" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.0</v>
+        <v>2.0689655172413794</v>
       </c>
     </row>
     <row r="28">
@@ -1454,43 +1478,219 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
       </c>
       <c r="D28" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="E28" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F28" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="G28" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.0</v>
+        <v>3.0</v>
       </c>
       <c r="K28" t="n">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="L28" t="n">
-        <v>53.0</v>
+        <v>3.0</v>
       </c>
       <c r="M28" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.608695652173913</v>
+        <v>2.272727272727273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.823529411764706</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/D2_refereestats.xlsx
+++ b/D2_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Referee</t>
   </si>
@@ -146,6 +146,15 @@
     <t>31</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -158,16 +167,28 @@
     <t>Tom Bauer</t>
   </si>
   <si>
+    <t>Richard Hempel</t>
+  </si>
+  <si>
+    <t>Florian Lechner</t>
+  </si>
+  <si>
+    <t>Robert Kampka</t>
+  </si>
+  <si>
+    <t>Florian Heft</t>
+  </si>
+  <si>
     <t>Eric-Dominic Weisbach</t>
   </si>
   <si>
-    <t>Richard Hempel</t>
-  </si>
-  <si>
-    <t>Florian Lechner</t>
-  </si>
-  <si>
-    <t>Robert Kampka</t>
+    <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
+    <t>Felix Prigan</t>
   </si>
   <si>
     <t>Florian Exner</t>
@@ -179,7 +200,13 @@
     <t>Robin Braun</t>
   </si>
   <si>
-    <t>Florian Heft</t>
+    <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Patrick Schwengers</t>
   </si>
   <si>
     <t>Lukas Benen</t>
@@ -188,52 +215,43 @@
     <t>Lars Erbst</t>
   </si>
   <si>
-    <t>Patrick Alt</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
+    <t>Frank Willenborg</t>
   </si>
   <si>
     <t>Sven Jablonski</t>
   </si>
   <si>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
     <t>Felix Brych</t>
   </si>
   <si>
     <t>Nicolas Winter</t>
   </si>
   <si>
-    <t>Felix Prigan</t>
-  </si>
-  <si>
-    <t>Max Burda</t>
-  </si>
-  <si>
     <t>Christian Dingert</t>
   </si>
   <si>
-    <t>Florian Badstübner</t>
-  </si>
-  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
-    <t>Patrick Schwengers</t>
-  </si>
-  <si>
     <t>Daniel Schlager</t>
   </si>
   <si>
     <t>Tobias Welz</t>
   </si>
   <si>
-    <t>Frank Willenborg</t>
-  </si>
-  <si>
     <t>Daniel Siebert</t>
   </si>
   <si>
     <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Sören Storks</t>
   </si>
   <si>
     <t>Matthias Jöllenbeck</t>
@@ -334,7 +352,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>24.0</v>
@@ -378,43 +396,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n">
-        <v>535.0</v>
+        <v>620.0</v>
       </c>
       <c r="E3" t="n">
-        <v>59.44444444444444</v>
+        <v>56.36363636363637</v>
       </c>
       <c r="F3" t="n">
-        <v>7600.0</v>
+        <v>8300.0</v>
       </c>
       <c r="G3" t="n">
-        <v>844.4444444444445</v>
+        <v>754.5454545454545</v>
       </c>
       <c r="H3" t="n">
-        <v>6400.0</v>
+        <v>6600.0</v>
       </c>
       <c r="I3" t="n">
-        <v>711.1111111111111</v>
+        <v>600.0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.888888888888886</v>
+        <v>36.18181818181818</v>
       </c>
       <c r="K3" t="n">
-        <v>30.666666666666668</v>
+        <v>33.63636363636363</v>
       </c>
       <c r="L3" t="n">
-        <v>27.0</v>
+        <v>30.636363636363637</v>
       </c>
       <c r="M3" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2384937238493725</v>
+        <v>2.198581560283688</v>
       </c>
     </row>
     <row r="4">
@@ -422,43 +440,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>245.0</v>
+        <v>265.0</v>
       </c>
       <c r="E4" t="n">
-        <v>81.66666666666667</v>
+        <v>66.25</v>
       </c>
       <c r="F4" t="n">
         <v>5100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1700.0</v>
+        <v>1275.0</v>
       </c>
       <c r="H4" t="n">
         <v>2700.0</v>
       </c>
       <c r="I4" t="n">
-        <v>900.0</v>
+        <v>675.0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.333333333333336</v>
+        <v>30.25</v>
       </c>
       <c r="K4" t="n">
-        <v>35.333333333333336</v>
+        <v>42.5</v>
       </c>
       <c r="L4" t="n">
-        <v>20.333333333333332</v>
+        <v>31.25</v>
       </c>
       <c r="M4" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.712121212121212</v>
+        <v>3.1176470588235294</v>
       </c>
     </row>
     <row r="5">
@@ -466,43 +484,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>150.0</v>
+        <v>190.0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.0</v>
+        <v>47.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2200.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G5" t="n">
-        <v>733.3333333333334</v>
+        <v>625.0</v>
       </c>
       <c r="H5" t="n">
         <v>2100.0</v>
       </c>
       <c r="I5" t="n">
-        <v>700.0</v>
+        <v>525.0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.666666666666664</v>
+        <v>58.5</v>
       </c>
       <c r="K5" t="n">
-        <v>29.666666666666668</v>
+        <v>38.5</v>
       </c>
       <c r="L5" t="n">
-        <v>16.0</v>
+        <v>28.25</v>
       </c>
       <c r="M5" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1739130434782608</v>
+        <v>2.087912087912088</v>
       </c>
     </row>
     <row r="6">
@@ -510,43 +528,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>120.0</v>
+        <v>300.0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0</v>
+        <v>75.0</v>
       </c>
       <c r="F6" t="n">
-        <v>700.0</v>
+        <v>4950.0</v>
       </c>
       <c r="G6" t="n">
-        <v>233.33333333333334</v>
+        <v>1237.5</v>
       </c>
       <c r="H6" t="n">
-        <v>400.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I6" t="n">
-        <v>133.33333333333334</v>
+        <v>825.0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.333333333333332</v>
+        <v>19.75</v>
       </c>
       <c r="K6" t="n">
-        <v>60.666666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="L6" t="n">
-        <v>50.666666666666664</v>
+        <v>19.75</v>
       </c>
       <c r="M6" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4285714285714286</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -554,43 +572,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>250.0</v>
+        <v>160.0</v>
       </c>
       <c r="E7" t="n">
-        <v>83.33333333333333</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F7" t="n">
-        <v>4350.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1450.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>2700.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I7" t="n">
-        <v>900.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>21.666666666666668</v>
+        <v>36.0</v>
       </c>
       <c r="K7" t="n">
-        <v>37.333333333333336</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="L7" t="n">
-        <v>21.666666666666668</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.289473684210526</v>
+        <v>2.7586206896551726</v>
       </c>
     </row>
     <row r="8">
@@ -598,43 +616,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>110.0</v>
+        <v>120.0</v>
       </c>
       <c r="E8" t="n">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G8" t="n">
-        <v>650.0</v>
+        <v>600.0</v>
       </c>
       <c r="H8" t="n">
-        <v>900.0</v>
+        <v>700.0</v>
       </c>
       <c r="I8" t="n">
-        <v>450.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.0</v>
+        <v>78.66666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>69.5</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="L8" t="n">
-        <v>23.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="M8" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.682926829268293</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="9">
@@ -642,43 +660,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>120.0</v>
+        <v>290.0</v>
       </c>
       <c r="E9" t="n">
-        <v>60.0</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>1800.0</v>
+        <v>6700.0</v>
       </c>
       <c r="G9" t="n">
-        <v>900.0</v>
+        <v>2233.3333333333335</v>
       </c>
       <c r="H9" t="n">
-        <v>700.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I9" t="n">
-        <v>350.0</v>
+        <v>1733.3333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>72.5</v>
+        <v>46.0</v>
       </c>
       <c r="K9" t="n">
-        <v>34.5</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="L9" t="n">
-        <v>34.5</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="M9" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0</v>
+        <v>3.8666666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -686,43 +704,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1200.0</v>
+        <v>700.0</v>
       </c>
       <c r="G10" t="n">
-        <v>600.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1200.0</v>
+        <v>400.0</v>
       </c>
       <c r="I10" t="n">
-        <v>600.0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="J10" t="n">
-        <v>35.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="K10" t="n">
-        <v>42.5</v>
+        <v>60.666666666666664</v>
       </c>
       <c r="L10" t="n">
-        <v>30.5</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="M10" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9230769230769231</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="11">
@@ -730,43 +748,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0</v>
+        <v>250.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>100.0</v>
+        <v>4850.0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.0</v>
+        <v>1616.6666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>200.0</v>
+        <v>3350.0</v>
       </c>
       <c r="I11" t="n">
-        <v>100.0</v>
+        <v>1116.6666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>40.5</v>
+        <v>38.0</v>
       </c>
       <c r="K11" t="n">
-        <v>49.5</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="L11" t="n">
-        <v>43.5</v>
+        <v>17.0</v>
       </c>
       <c r="M11" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5151515151515151</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="12">
@@ -774,43 +792,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>135.0</v>
+        <v>240.0</v>
       </c>
       <c r="E12" t="n">
-        <v>67.5</v>
+        <v>80.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2300.0</v>
+        <v>5550.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1150.0</v>
+        <v>1850.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2150.0</v>
+        <v>3550.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1075.0</v>
+        <v>1183.3333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>15.5</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="K12" t="n">
-        <v>26.5</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="L12" t="n">
-        <v>15.0</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="M12" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.8095238095238093</v>
       </c>
     </row>
     <row r="13">
@@ -818,43 +836,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>190.0</v>
+        <v>130.0</v>
       </c>
       <c r="E13" t="n">
-        <v>95.0</v>
+        <v>65.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4300.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2150.0</v>
+        <v>650.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1800.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.5</v>
+        <v>59.5</v>
       </c>
       <c r="K13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M13" t="n">
         <v>21.0</v>
       </c>
-      <c r="L13" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25.0</v>
-      </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>3.0952380952380953</v>
       </c>
     </row>
     <row r="14">
@@ -862,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -880,25 +898,25 @@
         <v>600.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.5</v>
+        <v>35.0</v>
       </c>
       <c r="K14" t="n">
-        <v>33.0</v>
+        <v>42.5</v>
       </c>
       <c r="L14" t="n">
-        <v>33.0</v>
+        <v>30.5</v>
       </c>
       <c r="M14" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="15">
@@ -906,43 +924,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>140.0</v>
+        <v>50.0</v>
       </c>
       <c r="E15" t="n">
-        <v>70.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2400.0</v>
+        <v>100.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1200.0</v>
+        <v>50.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2000.0</v>
+        <v>200.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.5</v>
+        <v>40.5</v>
       </c>
       <c r="K15" t="n">
-        <v>31.5</v>
+        <v>49.5</v>
       </c>
       <c r="L15" t="n">
-        <v>15.0</v>
+        <v>43.5</v>
       </c>
       <c r="M15" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.121212121212121</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -968,25 +986,25 @@
         <v>1150.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1850.0</v>
+        <v>2150.0</v>
       </c>
       <c r="I16" t="n">
-        <v>925.0</v>
+        <v>1075.0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.5</v>
+        <v>15.5</v>
       </c>
       <c r="K16" t="n">
-        <v>45.5</v>
+        <v>26.5</v>
       </c>
       <c r="L16" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="M16" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.375</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="17">
@@ -994,43 +1012,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>195.0</v>
+        <v>60.0</v>
       </c>
       <c r="E17" t="n">
-        <v>97.5</v>
+        <v>30.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5050.0</v>
+        <v>600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>2525.0</v>
+        <v>300.0</v>
       </c>
       <c r="H17" t="n">
-        <v>3200.0</v>
+        <v>600.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.5</v>
+        <v>38.0</v>
       </c>
       <c r="K17" t="n">
-        <v>48.5</v>
+        <v>21.0</v>
       </c>
       <c r="L17" t="n">
-        <v>18.5</v>
+        <v>38.0</v>
       </c>
       <c r="M17" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.431818181818182</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -1038,43 +1056,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>125.0</v>
+        <v>180.0</v>
       </c>
       <c r="E18" t="n">
-        <v>62.5</v>
+        <v>90.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1700.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G18" t="n">
-        <v>850.0</v>
+        <v>1450.0</v>
       </c>
       <c r="H18" t="n">
-        <v>550.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I18" t="n">
-        <v>275.0</v>
+        <v>700.0</v>
       </c>
       <c r="J18" t="n">
-        <v>66.5</v>
+        <v>47.0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.0</v>
+        <v>28.5</v>
       </c>
       <c r="L18" t="n">
-        <v>34.0</v>
+        <v>28.5</v>
       </c>
       <c r="M18" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.125</v>
+        <v>3.272727272727273</v>
       </c>
     </row>
     <row r="19">
@@ -1082,43 +1100,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" t="n">
-        <v>10.0</v>
+        <v>90.0</v>
       </c>
       <c r="E19" t="n">
-        <v>10.0</v>
+        <v>45.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>42.5</v>
       </c>
       <c r="K19" t="n">
-        <v>81.0</v>
+        <v>62.5</v>
       </c>
       <c r="L19" t="n">
-        <v>81.0</v>
+        <v>42.5</v>
       </c>
       <c r="M19" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5263157894736842</v>
+        <v>1.9565217391304348</v>
       </c>
     </row>
     <row r="20">
@@ -1126,43 +1144,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="E20" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1500.0</v>
+        <v>600.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1600.0</v>
+        <v>500.0</v>
       </c>
       <c r="J20" t="n">
-        <v>17.0</v>
+        <v>56.5</v>
       </c>
       <c r="K20" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="L20" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="M20" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.3333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1170,43 +1188,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="n">
-        <v>80.0</v>
+        <v>140.0</v>
       </c>
       <c r="E21" t="n">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="F21" t="n">
-        <v>700.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G21" t="n">
-        <v>700.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J21" t="n">
-        <v>97.0</v>
+        <v>33.5</v>
       </c>
       <c r="K21" t="n">
-        <v>5.0</v>
+        <v>31.5</v>
       </c>
       <c r="L21" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="M21" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4782608695652173</v>
+        <v>2.121212121212121</v>
       </c>
     </row>
     <row r="22">
@@ -1214,43 +1232,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="E22" t="n">
         <v>50.0</v>
       </c>
       <c r="F22" t="n">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G22" t="n">
         <v>600.0</v>
       </c>
       <c r="H22" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I22" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.0</v>
+        <v>58.5</v>
       </c>
       <c r="K22" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.0</v>
+        <v>37.5</v>
       </c>
       <c r="M22" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.125</v>
+        <v>2.5641025641025643</v>
       </c>
     </row>
     <row r="23">
@@ -1258,43 +1276,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23" t="n">
-        <v>40.0</v>
+        <v>125.0</v>
       </c>
       <c r="E23" t="n">
-        <v>40.0</v>
+        <v>62.5</v>
       </c>
       <c r="F23" t="n">
-        <v>400.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.0</v>
+        <v>850.0</v>
       </c>
       <c r="H23" t="n">
-        <v>400.0</v>
+        <v>550.0</v>
       </c>
       <c r="I23" t="n">
-        <v>400.0</v>
+        <v>275.0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.0</v>
+        <v>66.5</v>
       </c>
       <c r="K23" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="L23" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="M23" t="n">
         <v>20.0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="24">
@@ -1302,7 +1320,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -1314,31 +1332,31 @@
         <v>60.0</v>
       </c>
       <c r="F24" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
       <c r="G24" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
       <c r="H24" t="n">
-        <v>800.0</v>
+        <v>500.0</v>
       </c>
       <c r="I24" t="n">
-        <v>800.0</v>
+        <v>500.0</v>
       </c>
       <c r="J24" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.0</v>
+        <v>72.0</v>
       </c>
       <c r="L24" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="M24" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.0</v>
+        <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="25">
@@ -1346,16 +1364,16 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="E25" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -1370,19 +1388,19 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="L25" t="n">
-        <v>59.0</v>
+        <v>81.0</v>
       </c>
       <c r="M25" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9375</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="26">
@@ -1390,43 +1408,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
       </c>
       <c r="D26" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="E26" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="F26" t="n">
-        <v>600.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G26" t="n">
-        <v>600.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H26" t="n">
-        <v>600.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I26" t="n">
-        <v>600.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J26" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="K26" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="L26" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="M26" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.272727272727273</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="27">
@@ -1434,43 +1452,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="E27" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="F27" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="G27" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="H27" t="n">
-        <v>900.0</v>
+        <v>400.0</v>
       </c>
       <c r="I27" t="n">
-        <v>900.0</v>
+        <v>400.0</v>
       </c>
       <c r="J27" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="K27" t="n">
-        <v>41.0</v>
+        <v>11.0</v>
       </c>
       <c r="L27" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="M27" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.0689655172413794</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -1478,43 +1496,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
       </c>
       <c r="D28" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="E28" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="F28" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.0</v>
+        <v>59.0</v>
       </c>
       <c r="K28" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>3.0</v>
+        <v>59.0</v>
       </c>
       <c r="M28" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.272727272727273</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="29">
@@ -1522,43 +1540,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="E29" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="F29" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="G29" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="H29" t="n">
-        <v>400.0</v>
+        <v>900.0</v>
       </c>
       <c r="I29" t="n">
-        <v>400.0</v>
+        <v>900.0</v>
       </c>
       <c r="J29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K29" t="n">
         <v>41.0</v>
       </c>
-      <c r="K29" t="n">
-        <v>46.0</v>
-      </c>
       <c r="L29" t="n">
-        <v>41.0</v>
+        <v>8.0</v>
       </c>
       <c r="M29" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.380952380952381</v>
+        <v>2.0689655172413794</v>
       </c>
     </row>
     <row r="30">
@@ -1566,43 +1584,43 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M30" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="31">
@@ -1610,43 +1628,43 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.823529411764706</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -1654,42 +1672,174 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
       </c>
       <c r="D32" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.823529411764706</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.1739130434782608</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n">
         <v>20.0</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E35" t="n">
         <v>20.0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F35" t="n">
         <v>100.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G35" t="n">
         <v>100.0</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
         <v>96.0</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K35" t="n">
         <v>75.0</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>75.0</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M35" t="n">
         <v>25.0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N35" t="n">
         <v>0.8</v>
       </c>
     </row>

--- a/D2_refereestats.xlsx
+++ b/D2_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Referee</t>
   </si>
@@ -155,6 +155,15 @@
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -176,16 +185,28 @@
     <t>Robert Kampka</t>
   </si>
   <si>
+    <t>Eric-Dominic Weisbach</t>
+  </si>
+  <si>
+    <t>Lars Erbst</t>
+  </si>
+  <si>
+    <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
+    <t>Robin Braun</t>
+  </si>
+  <si>
     <t>Florian Heft</t>
   </si>
   <si>
-    <t>Eric-Dominic Weisbach</t>
-  </si>
-  <si>
-    <t>Patrick Alt</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
+    <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Lukas Benen</t>
   </si>
   <si>
     <t>Felix Prigan</t>
@@ -194,31 +215,37 @@
     <t>Florian Exner</t>
   </si>
   <si>
+    <t>Patrick Schwengers</t>
+  </si>
+  <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
     <t>Benjamin Brand</t>
   </si>
   <si>
-    <t>Robin Braun</t>
-  </si>
-  <si>
-    <t>Max Burda</t>
-  </si>
-  <si>
     <t>Florian Badstübner</t>
   </si>
   <si>
-    <t>Patrick Schwengers</t>
-  </si>
-  <si>
-    <t>Lukas Benen</t>
-  </si>
-  <si>
-    <t>Lars Erbst</t>
+    <t>Tobias Welz</t>
   </si>
   <si>
     <t>Frank Willenborg</t>
   </si>
   <si>
-    <t>Sven Jablonski</t>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Sören Storks</t>
+  </si>
+  <si>
+    <t>Matthias Jöllenbeck</t>
   </si>
   <si>
     <t>Harm Osmers</t>
@@ -227,7 +254,10 @@
     <t>Felix Brych</t>
   </si>
   <si>
-    <t>Nicolas Winter</t>
+    <t>Robert Hartmann</t>
+  </si>
+  <si>
+    <t>Tobias Reichel</t>
   </si>
   <si>
     <t>Christian Dingert</t>
@@ -236,25 +266,13 @@
     <t>Bastian Dankert</t>
   </si>
   <si>
-    <t>Daniel Schlager</t>
-  </si>
-  <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
+    <t>Sascha Stegemann</t>
   </si>
   <si>
     <t>Martin Petersen</t>
   </si>
   <si>
     <t>Tobias Stieler</t>
-  </si>
-  <si>
-    <t>Sören Storks</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
   </si>
 </sst>
 </file>
@@ -352,7 +370,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>24.0</v>
@@ -396,43 +414,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="D3" t="n">
-        <v>620.0</v>
+        <v>900.0</v>
       </c>
       <c r="E3" t="n">
-        <v>56.36363636363637</v>
+        <v>56.25</v>
       </c>
       <c r="F3" t="n">
-        <v>8300.0</v>
+        <v>12200.0</v>
       </c>
       <c r="G3" t="n">
-        <v>754.5454545454545</v>
+        <v>762.5</v>
       </c>
       <c r="H3" t="n">
-        <v>6600.0</v>
+        <v>9700.0</v>
       </c>
       <c r="I3" t="n">
-        <v>600.0</v>
+        <v>606.25</v>
       </c>
       <c r="J3" t="n">
-        <v>36.18181818181818</v>
+        <v>37.375</v>
       </c>
       <c r="K3" t="n">
-        <v>33.63636363636363</v>
+        <v>31.625</v>
       </c>
       <c r="L3" t="n">
-        <v>30.636363636363637</v>
+        <v>25.6875</v>
       </c>
       <c r="M3" t="n">
         <v>25.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.198581560283688</v>
+        <v>2.227722772277228</v>
       </c>
     </row>
     <row r="4">
@@ -440,43 +458,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n">
-        <v>265.0</v>
+        <v>355.0</v>
       </c>
       <c r="E4" t="n">
-        <v>66.25</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="F4" t="n">
-        <v>5100.0</v>
+        <v>6000.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1275.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H4" t="n">
         <v>2700.0</v>
       </c>
       <c r="I4" t="n">
-        <v>675.0</v>
+        <v>450.0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.25</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="K4" t="n">
-        <v>42.5</v>
+        <v>48.833333333333336</v>
       </c>
       <c r="L4" t="n">
-        <v>31.25</v>
+        <v>41.166666666666664</v>
       </c>
       <c r="M4" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1176470588235294</v>
+        <v>2.6296296296296298</v>
       </c>
     </row>
     <row r="5">
@@ -484,43 +502,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n">
-        <v>190.0</v>
+        <v>270.0</v>
       </c>
       <c r="E5" t="n">
-        <v>47.5</v>
+        <v>45.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2500.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G5" t="n">
-        <v>625.0</v>
+        <v>550.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2100.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>525.0</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="K5" t="n">
-        <v>38.5</v>
+        <v>50.5</v>
       </c>
       <c r="L5" t="n">
-        <v>28.25</v>
+        <v>36.166666666666664</v>
       </c>
       <c r="M5" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.087912087912088</v>
+        <v>2.125984251968504</v>
       </c>
     </row>
     <row r="6">
@@ -528,43 +546,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>300.0</v>
+        <v>430.0</v>
       </c>
       <c r="E6" t="n">
-        <v>75.0</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>4950.0</v>
+        <v>7050.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1237.5</v>
+        <v>1175.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3300.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I6" t="n">
-        <v>825.0</v>
+        <v>866.6666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>19.75</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="K6" t="n">
-        <v>37.5</v>
+        <v>42.0</v>
       </c>
       <c r="L6" t="n">
-        <v>19.75</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="M6" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.857142857142857</v>
+        <v>2.847682119205298</v>
       </c>
     </row>
     <row r="7">
@@ -572,43 +590,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>160.0</v>
+        <v>210.0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.333333333333336</v>
+        <v>42.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1700.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G7" t="n">
-        <v>566.6666666666666</v>
+        <v>400.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1300.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I7" t="n">
-        <v>433.3333333333333</v>
+        <v>300.0</v>
       </c>
       <c r="J7" t="n">
-        <v>36.0</v>
+        <v>33.6</v>
       </c>
       <c r="K7" t="n">
-        <v>59.666666666666664</v>
+        <v>52.8</v>
       </c>
       <c r="L7" t="n">
-        <v>28.666666666666668</v>
+        <v>26.2</v>
       </c>
       <c r="M7" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7586206896551726</v>
+        <v>1.9811320754716981</v>
       </c>
     </row>
     <row r="8">
@@ -616,43 +634,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
       <c r="E8" t="n">
         <v>40.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1800.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G8" t="n">
-        <v>600.0</v>
+        <v>480.0</v>
       </c>
       <c r="H8" t="n">
-        <v>700.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I8" t="n">
-        <v>233.33333333333334</v>
+        <v>260.0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.66666666666667</v>
+        <v>66.6</v>
       </c>
       <c r="K8" t="n">
-        <v>41.666666666666664</v>
+        <v>42.0</v>
       </c>
       <c r="L8" t="n">
-        <v>41.666666666666664</v>
+        <v>34.2</v>
       </c>
       <c r="M8" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.550387596899225</v>
       </c>
     </row>
     <row r="9">
@@ -660,43 +678,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>290.0</v>
+        <v>180.0</v>
       </c>
       <c r="E9" t="n">
-        <v>96.66666666666667</v>
+        <v>36.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6700.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2233.3333333333335</v>
+        <v>300.0</v>
       </c>
       <c r="H9" t="n">
-        <v>5200.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1733.3333333333333</v>
+        <v>540.0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.0</v>
+        <v>34.8</v>
       </c>
       <c r="K9" t="n">
-        <v>15.666666666666666</v>
+        <v>49.2</v>
       </c>
       <c r="L9" t="n">
-        <v>15.666666666666666</v>
+        <v>37.0</v>
       </c>
       <c r="M9" t="n">
         <v>25.0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8666666666666667</v>
+        <v>1.4173228346456692</v>
       </c>
     </row>
     <row r="10">
@@ -704,43 +722,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>355.0</v>
       </c>
       <c r="E10" t="n">
-        <v>40.0</v>
+        <v>71.0</v>
       </c>
       <c r="F10" t="n">
-        <v>700.0</v>
+        <v>5500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>233.33333333333334</v>
+        <v>1100.0</v>
       </c>
       <c r="H10" t="n">
-        <v>400.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.33333333333334</v>
+        <v>640.0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.333333333333332</v>
+        <v>48.8</v>
       </c>
       <c r="K10" t="n">
-        <v>60.666666666666664</v>
+        <v>31.4</v>
       </c>
       <c r="L10" t="n">
-        <v>50.666666666666664</v>
+        <v>24.8</v>
       </c>
       <c r="M10" t="n">
         <v>28.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4285714285714286</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
@@ -748,43 +766,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" t="n">
-        <v>250.0</v>
+        <v>445.0</v>
       </c>
       <c r="E11" t="n">
-        <v>83.33333333333333</v>
+        <v>89.0</v>
       </c>
       <c r="F11" t="n">
-        <v>4850.0</v>
+        <v>8900.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1616.6666666666667</v>
+        <v>1780.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3350.0</v>
+        <v>6350.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1116.6666666666667</v>
+        <v>1270.0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="K11" t="n">
-        <v>36.666666666666664</v>
+        <v>28.4</v>
       </c>
       <c r="L11" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="M11" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.787878787878788</v>
+        <v>3.449612403100775</v>
       </c>
     </row>
     <row r="12">
@@ -792,43 +810,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>240.0</v>
+        <v>375.0</v>
       </c>
       <c r="E12" t="n">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5550.0</v>
+        <v>7900.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1850.0</v>
+        <v>1580.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3550.0</v>
+        <v>3950.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1183.3333333333333</v>
+        <v>790.0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.333333333333334</v>
+        <v>20.0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.333333333333336</v>
+        <v>35.6</v>
       </c>
       <c r="L12" t="n">
-        <v>17.333333333333332</v>
+        <v>23.0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8095238095238093</v>
+        <v>3.712871287128713</v>
       </c>
     </row>
     <row r="13">
@@ -836,43 +854,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0</v>
+        <v>245.0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.0</v>
+        <v>61.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1300.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G13" t="n">
-        <v>650.0</v>
+        <v>875.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2200.0</v>
+        <v>3350.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1100.0</v>
+        <v>837.5</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5</v>
+        <v>30.5</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>30.0</v>
       </c>
       <c r="L13" t="n">
-        <v>8.5</v>
+        <v>19.75</v>
       </c>
       <c r="M13" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.0952380952380953</v>
+        <v>2.6630434782608696</v>
       </c>
     </row>
     <row r="14">
@@ -880,43 +898,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>100.0</v>
+        <v>340.0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.0</v>
+        <v>85.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1200.0</v>
+        <v>7100.0</v>
       </c>
       <c r="G14" t="n">
-        <v>600.0</v>
+        <v>1775.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1200.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I14" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="J14" t="n">
-        <v>35.0</v>
+        <v>56.75</v>
       </c>
       <c r="K14" t="n">
-        <v>42.5</v>
+        <v>21.0</v>
       </c>
       <c r="L14" t="n">
-        <v>30.5</v>
+        <v>21.0</v>
       </c>
       <c r="M14" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.9230769230769231</v>
+        <v>3.6559139784946235</v>
       </c>
     </row>
     <row r="15">
@@ -924,43 +942,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0</v>
+        <v>170.0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.0</v>
+        <v>42.5</v>
       </c>
       <c r="F15" t="n">
-        <v>100.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G15" t="n">
-        <v>50.0</v>
+        <v>475.0</v>
       </c>
       <c r="H15" t="n">
-        <v>200.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0</v>
+        <v>275.0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.5</v>
+        <v>43.25</v>
       </c>
       <c r="K15" t="n">
-        <v>49.5</v>
+        <v>36.25</v>
       </c>
       <c r="L15" t="n">
-        <v>43.5</v>
+        <v>41.75</v>
       </c>
       <c r="M15" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5151515151515151</v>
+        <v>1.9767441860465116</v>
       </c>
     </row>
     <row r="16">
@@ -968,43 +986,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>135.0</v>
+        <v>200.0</v>
       </c>
       <c r="E16" t="n">
-        <v>67.5</v>
+        <v>50.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2300.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1150.0</v>
+        <v>525.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2150.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1075.0</v>
+        <v>525.0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.5</v>
+        <v>45.5</v>
       </c>
       <c r="K16" t="n">
-        <v>26.5</v>
+        <v>42.75</v>
       </c>
       <c r="L16" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="M16" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="17">
@@ -1012,43 +1030,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>60.0</v>
+        <v>170.0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F17" t="n">
-        <v>600.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>300.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>600.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I17" t="n">
-        <v>300.0</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="J17" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="L17" t="n">
-        <v>38.0</v>
+        <v>15.0</v>
       </c>
       <c r="M17" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.0</v>
+        <v>3.0357142857142856</v>
       </c>
     </row>
     <row r="18">
@@ -1056,43 +1074,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18" t="n">
-        <v>180.0</v>
+        <v>120.0</v>
       </c>
       <c r="E18" t="n">
-        <v>90.0</v>
+        <v>40.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2900.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1450.0</v>
+        <v>400.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I18" t="n">
-        <v>700.0</v>
+        <v>400.0</v>
       </c>
       <c r="J18" t="n">
-        <v>47.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="K18" t="n">
-        <v>28.5</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="L18" t="n">
-        <v>28.5</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="M18" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.272727272727273</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="19">
@@ -1100,43 +1118,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" t="n">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
       <c r="E19" t="n">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="F19" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1000.0</v>
       </c>
-      <c r="G19" t="n">
-        <v>500.0</v>
-      </c>
       <c r="H19" t="n">
-        <v>600.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I19" t="n">
-        <v>300.0</v>
+        <v>800.0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.5</v>
+        <v>39.0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.5</v>
+        <v>57.666666666666664</v>
       </c>
       <c r="L19" t="n">
-        <v>42.5</v>
+        <v>39.0</v>
       </c>
       <c r="M19" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9565217391304348</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -1144,43 +1162,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>100.0</v>
+        <v>170.0</v>
       </c>
       <c r="E20" t="n">
-        <v>50.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F20" t="n">
-        <v>1200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G20" t="n">
-        <v>600.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1000.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I20" t="n">
-        <v>500.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="J20" t="n">
-        <v>56.5</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="K20" t="n">
-        <v>33.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="L20" t="n">
-        <v>33.0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="M20" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.6984126984126986</v>
       </c>
     </row>
     <row r="21">
@@ -1188,43 +1206,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21" t="n">
-        <v>140.0</v>
+        <v>125.0</v>
       </c>
       <c r="E21" t="n">
-        <v>70.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F21" t="n">
-        <v>2400.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1200.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>2000.0</v>
+        <v>1650.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1000.0</v>
+        <v>550.0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.5</v>
+        <v>51.333333333333336</v>
       </c>
       <c r="K21" t="n">
-        <v>31.5</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="L21" t="n">
-        <v>15.0</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="M21" t="n">
-        <v>33.0</v>
+        <v>21.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.121212121212121</v>
+        <v>1.9841269841269842</v>
       </c>
     </row>
     <row r="22">
@@ -1232,43 +1250,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
       </c>
       <c r="D22" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="E22" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F22" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G22" t="n">
-        <v>600.0</v>
+        <v>750.0</v>
       </c>
       <c r="H22" t="n">
-        <v>800.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I22" t="n">
-        <v>400.0</v>
+        <v>950.0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.5</v>
+        <v>46.0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="L22" t="n">
-        <v>37.5</v>
+        <v>28.0</v>
       </c>
       <c r="M22" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.5641025641025643</v>
+        <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="23">
@@ -1276,43 +1294,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
       </c>
       <c r="D23" t="n">
-        <v>125.0</v>
+        <v>50.0</v>
       </c>
       <c r="E23" t="n">
-        <v>62.5</v>
+        <v>25.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1700.0</v>
+        <v>100.0</v>
       </c>
       <c r="G23" t="n">
-        <v>850.0</v>
+        <v>50.0</v>
       </c>
       <c r="H23" t="n">
-        <v>550.0</v>
+        <v>200.0</v>
       </c>
       <c r="I23" t="n">
-        <v>275.0</v>
+        <v>100.0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.5</v>
+        <v>40.5</v>
       </c>
       <c r="K23" t="n">
-        <v>34.0</v>
+        <v>49.5</v>
       </c>
       <c r="L23" t="n">
-        <v>34.0</v>
+        <v>43.5</v>
       </c>
       <c r="M23" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.125</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="24">
@@ -1320,43 +1338,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" t="n">
-        <v>60.0</v>
+        <v>180.0</v>
       </c>
       <c r="E24" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
       <c r="F24" t="n">
-        <v>800.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G24" t="n">
-        <v>800.0</v>
+        <v>1450.0</v>
       </c>
       <c r="H24" t="n">
-        <v>500.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I24" t="n">
-        <v>500.0</v>
+        <v>700.0</v>
       </c>
       <c r="J24" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="K24" t="n">
-        <v>72.0</v>
+        <v>28.5</v>
       </c>
       <c r="L24" t="n">
-        <v>40.0</v>
+        <v>28.5</v>
       </c>
       <c r="M24" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.3076923076923075</v>
+        <v>3.272727272727273</v>
       </c>
     </row>
     <row r="25">
@@ -1364,43 +1382,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="n">
-        <v>10.0</v>
+        <v>120.0</v>
       </c>
       <c r="E25" t="n">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="K25" t="n">
-        <v>81.0</v>
+        <v>38.5</v>
       </c>
       <c r="L25" t="n">
-        <v>81.0</v>
+        <v>14.0</v>
       </c>
       <c r="M25" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5263157894736842</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
@@ -1408,43 +1426,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D26" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="E26" t="n">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1500.0</v>
+        <v>600.0</v>
       </c>
       <c r="H26" t="n">
-        <v>1600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I26" t="n">
-        <v>1600.0</v>
+        <v>400.0</v>
       </c>
       <c r="J26" t="n">
-        <v>17.0</v>
+        <v>58.5</v>
       </c>
       <c r="K26" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="L26" t="n">
-        <v>17.0</v>
+        <v>37.5</v>
       </c>
       <c r="M26" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3333333333333335</v>
+        <v>2.5641025641025643</v>
       </c>
     </row>
     <row r="27">
@@ -1452,43 +1470,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E27" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="F27" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="G27" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="H27" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="I27" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.0</v>
+        <v>5.5</v>
       </c>
       <c r="K27" t="n">
-        <v>11.0</v>
+        <v>30.5</v>
       </c>
       <c r="L27" t="n">
-        <v>11.0</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.0</v>
+        <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1496,43 +1514,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D28" t="n">
-        <v>30.0</v>
+        <v>95.0</v>
       </c>
       <c r="E28" t="n">
-        <v>30.0</v>
+        <v>47.5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>475.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>750.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>375.0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.0</v>
+        <v>53.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>52.5</v>
       </c>
       <c r="L28" t="n">
-        <v>59.0</v>
+        <v>36.5</v>
       </c>
       <c r="M28" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9375</v>
+        <v>1.9791666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -1540,43 +1558,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29" t="n">
         <v>60.0</v>
       </c>
       <c r="E29" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="F29" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="G29" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="H29" t="n">
-        <v>900.0</v>
+        <v>400.0</v>
       </c>
       <c r="I29" t="n">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="J29" t="n">
-        <v>8.0</v>
+        <v>71.5</v>
       </c>
       <c r="K29" t="n">
-        <v>41.0</v>
+        <v>51.5</v>
       </c>
       <c r="L29" t="n">
-        <v>8.0</v>
+        <v>51.5</v>
       </c>
       <c r="M29" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.0689655172413794</v>
+        <v>1.2765957446808511</v>
       </c>
     </row>
     <row r="30">
@@ -1584,43 +1602,43 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
       </c>
       <c r="D30" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="E30" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="F30" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="G30" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="H30" t="n">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
       <c r="I30" t="n">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.0</v>
+        <v>40.0</v>
       </c>
       <c r="K30" t="n">
-        <v>43.0</v>
+        <v>72.0</v>
       </c>
       <c r="L30" t="n">
-        <v>3.0</v>
+        <v>40.0</v>
       </c>
       <c r="M30" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.272727272727273</v>
+        <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="31">
@@ -1628,16 +1646,16 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -1655,16 +1673,16 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="M31" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="32">
@@ -1672,22 +1690,22 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
       </c>
       <c r="D32" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="E32" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="F32" t="n">
-        <v>900.0</v>
+        <v>500.0</v>
       </c>
       <c r="G32" t="n">
-        <v>900.0</v>
+        <v>500.0</v>
       </c>
       <c r="H32" t="n">
         <v>900.0</v>
@@ -1696,19 +1714,19 @@
         <v>900.0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="K32" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="L32" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="M32" t="n">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.823529411764706</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1716,43 +1734,43 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
       </c>
       <c r="D33" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="E33" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="F33" t="n">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="G33" t="n">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="H33" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="I33" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="J33" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="M33" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.4</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="34">
@@ -1760,22 +1778,22 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
       </c>
       <c r="D34" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="E34" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F34" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="G34" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="H34" t="n">
         <v>400.0</v>
@@ -1784,19 +1802,19 @@
         <v>400.0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="K34" t="n">
-        <v>62.0</v>
+        <v>11.0</v>
       </c>
       <c r="L34" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="M34" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1739130434782608</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1804,22 +1822,22 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
       </c>
       <c r="D35" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E35" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="F35" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="G35" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
@@ -1828,19 +1846,151 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>96.0</v>
+        <v>59.0</v>
       </c>
       <c r="K35" t="n">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="L35" t="n">
-        <v>75.0</v>
+        <v>59.0</v>
       </c>
       <c r="M35" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.823529411764706</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M38" t="n">
         <v>25.0</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.8</v>
+      <c r="N38" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/D2_refereestats.xlsx
+++ b/D2_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Referee</t>
   </si>
@@ -164,115 +164,133 @@
     <t>37</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Michael Bacher</t>
   </si>
   <si>
+    <t>Robert Kampka</t>
+  </si>
+  <si>
     <t>Tom Bauer</t>
   </si>
   <si>
+    <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
+    <t>Florian Lechner</t>
+  </si>
+  <si>
+    <t>Florian Heft</t>
+  </si>
+  <si>
+    <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Eric-Dominic Weisbach</t>
+  </si>
+  <si>
     <t>Richard Hempel</t>
   </si>
   <si>
-    <t>Florian Lechner</t>
-  </si>
-  <si>
-    <t>Robert Kampka</t>
-  </si>
-  <si>
-    <t>Eric-Dominic Weisbach</t>
+    <t>Lukas Benen</t>
   </si>
   <si>
     <t>Lars Erbst</t>
   </si>
   <si>
-    <t>Patrick Alt</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
+    <t>Felix Prigan</t>
+  </si>
+  <si>
+    <t>Florian Exner</t>
   </si>
   <si>
     <t>Robin Braun</t>
   </si>
   <si>
-    <t>Florian Heft</t>
-  </si>
-  <si>
-    <t>Max Burda</t>
-  </si>
-  <si>
-    <t>Lukas Benen</t>
-  </si>
-  <si>
-    <t>Felix Prigan</t>
-  </si>
-  <si>
-    <t>Florian Exner</t>
-  </si>
-  <si>
     <t>Patrick Schwengers</t>
   </si>
   <si>
+    <t>Tobias Welz</t>
+  </si>
+  <si>
+    <t>Sören Storks</t>
+  </si>
+  <si>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Frank Willenborg</t>
+  </si>
+  <si>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Timo Gerach</t>
+  </si>
+  <si>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Tobias Reichel</t>
+  </si>
+  <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
     <t>Daniel Schlager</t>
   </si>
   <si>
-    <t>Sven Jablonski</t>
-  </si>
-  <si>
-    <t>Nicolas Winter</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
-    <t>Florian Badstübner</t>
-  </si>
-  <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>Frank Willenborg</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
-  </si>
-  <si>
-    <t>Sören Storks</t>
-  </si>
-  <si>
     <t>Matthias Jöllenbeck</t>
   </si>
   <si>
-    <t>Harm Osmers</t>
-  </si>
-  <si>
     <t>Felix Brych</t>
   </si>
   <si>
     <t>Robert Hartmann</t>
   </si>
   <si>
-    <t>Tobias Reichel</t>
-  </si>
-  <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Martin Petersen</t>
+    <t>Timo Gansloweit</t>
   </si>
   <si>
     <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Christian Ballweg</t>
   </si>
 </sst>
 </file>
@@ -370,43 +388,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2445.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>34650.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30250.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>672.2222222222222</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40.93333333333333</v>
+      </c>
+      <c r="K2" t="n">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="L2" t="n">
+        <v>29.866666666666667</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>1190.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>49.583333333333336</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17175.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>715.625</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11200.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>466.6666666666667</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.625</v>
-      </c>
-      <c r="L2" t="n">
-        <v>29.583333333333332</v>
-      </c>
-      <c r="M2" t="n">
-        <v>23.0</v>
-      </c>
       <c r="N2" t="n">
-        <v>2.125</v>
+        <v>2.175266903914591</v>
       </c>
     </row>
     <row r="3">
@@ -414,43 +432,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>900.0</v>
+        <v>1050.0</v>
       </c>
       <c r="E3" t="n">
-        <v>56.25</v>
+        <v>52.5</v>
       </c>
       <c r="F3" t="n">
-        <v>12200.0</v>
+        <v>15775.0</v>
       </c>
       <c r="G3" t="n">
-        <v>762.5</v>
+        <v>788.75</v>
       </c>
       <c r="H3" t="n">
-        <v>9700.0</v>
+        <v>9900.0</v>
       </c>
       <c r="I3" t="n">
-        <v>606.25</v>
+        <v>495.0</v>
       </c>
       <c r="J3" t="n">
-        <v>37.375</v>
+        <v>30.35</v>
       </c>
       <c r="K3" t="n">
-        <v>31.625</v>
+        <v>43.65</v>
       </c>
       <c r="L3" t="n">
-        <v>25.6875</v>
+        <v>26.3</v>
       </c>
       <c r="M3" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.227722772277228</v>
+        <v>2.234042553191489</v>
       </c>
     </row>
     <row r="4">
@@ -458,43 +476,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D4" t="n">
-        <v>355.0</v>
+        <v>525.0</v>
       </c>
       <c r="E4" t="n">
-        <v>59.166666666666664</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F4" t="n">
-        <v>6000.0</v>
+        <v>8200.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1000.0</v>
+        <v>911.1111111111111</v>
       </c>
       <c r="H4" t="n">
-        <v>2700.0</v>
+        <v>4600.0</v>
       </c>
       <c r="I4" t="n">
-        <v>450.0</v>
+        <v>511.1111111111111</v>
       </c>
       <c r="J4" t="n">
-        <v>47.166666666666664</v>
+        <v>53.22222222222222</v>
       </c>
       <c r="K4" t="n">
-        <v>48.833333333333336</v>
+        <v>40.77777777777778</v>
       </c>
       <c r="L4" t="n">
-        <v>41.166666666666664</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="M4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6296296296296298</v>
+        <v>2.4764150943396226</v>
       </c>
     </row>
     <row r="5">
@@ -502,43 +520,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
-        <v>270.0</v>
+        <v>290.0</v>
       </c>
       <c r="E5" t="n">
-        <v>45.0</v>
+        <v>41.42857142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>3300.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G5" t="n">
-        <v>550.0</v>
+        <v>457.14285714285717</v>
       </c>
       <c r="H5" t="n">
-        <v>2300.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I5" t="n">
-        <v>383.3333333333333</v>
+        <v>285.7142857142857</v>
       </c>
       <c r="J5" t="n">
-        <v>59.166666666666664</v>
+        <v>54.714285714285715</v>
       </c>
       <c r="K5" t="n">
-        <v>50.5</v>
+        <v>48.714285714285715</v>
       </c>
       <c r="L5" t="n">
-        <v>36.166666666666664</v>
+        <v>31.571428571428573</v>
       </c>
       <c r="M5" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.125984251968504</v>
+        <v>1.5846994535519126</v>
       </c>
     </row>
     <row r="6">
@@ -546,43 +564,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>430.0</v>
+        <v>410.0</v>
       </c>
       <c r="E6" t="n">
-        <v>71.66666666666667</v>
+        <v>58.57142857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>7050.0</v>
+        <v>5350.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1175.0</v>
+        <v>764.2857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>5200.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I6" t="n">
-        <v>866.6666666666666</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="J6" t="n">
-        <v>23.833333333333332</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="K6" t="n">
-        <v>42.0</v>
+        <v>49.42857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>23.833333333333332</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="M6" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.847682119205298</v>
+        <v>2.5308641975308643</v>
       </c>
     </row>
     <row r="7">
@@ -590,43 +608,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" t="n">
-        <v>210.0</v>
+        <v>535.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.0</v>
+        <v>76.42857142857143</v>
       </c>
       <c r="F7" t="n">
-        <v>2000.0</v>
+        <v>9600.0</v>
       </c>
       <c r="G7" t="n">
-        <v>400.0</v>
+        <v>1371.4285714285713</v>
       </c>
       <c r="H7" t="n">
-        <v>1500.0</v>
+        <v>6950.0</v>
       </c>
       <c r="I7" t="n">
-        <v>300.0</v>
+        <v>992.8571428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>33.6</v>
+        <v>33.714285714285715</v>
       </c>
       <c r="K7" t="n">
-        <v>52.8</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="L7" t="n">
-        <v>26.2</v>
+        <v>21.285714285714285</v>
       </c>
       <c r="M7" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9811320754716981</v>
+        <v>3.092485549132948</v>
       </c>
     </row>
     <row r="8">
@@ -634,43 +652,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="n">
-        <v>200.0</v>
+        <v>490.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2400.0</v>
+        <v>9500.0</v>
       </c>
       <c r="G8" t="n">
-        <v>480.0</v>
+        <v>1357.142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>1300.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>260.0</v>
+        <v>714.2857142857143</v>
       </c>
       <c r="J8" t="n">
-        <v>66.6</v>
+        <v>38.42857142857143</v>
       </c>
       <c r="K8" t="n">
-        <v>42.0</v>
+        <v>45.857142857142854</v>
       </c>
       <c r="L8" t="n">
-        <v>34.2</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="M8" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.550387596899225</v>
+        <v>3.550724637681159</v>
       </c>
     </row>
     <row r="9">
@@ -678,43 +696,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
-        <v>180.0</v>
+        <v>265.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F9" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1500.0</v>
       </c>
-      <c r="G9" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2700.0</v>
-      </c>
       <c r="I9" t="n">
-        <v>540.0</v>
+        <v>250.0</v>
       </c>
       <c r="J9" t="n">
-        <v>34.8</v>
+        <v>37.0</v>
       </c>
       <c r="K9" t="n">
-        <v>49.2</v>
+        <v>44.0</v>
       </c>
       <c r="L9" t="n">
-        <v>37.0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="M9" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.4173228346456692</v>
+        <v>1.8794326241134751</v>
       </c>
     </row>
     <row r="10">
@@ -722,43 +740,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n">
-        <v>355.0</v>
+        <v>400.0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>5500.0</v>
+        <v>7500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1100.0</v>
+        <v>1250.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3200.0</v>
+        <v>6200.0</v>
       </c>
       <c r="I10" t="n">
-        <v>640.0</v>
+        <v>1033.3333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>48.8</v>
+        <v>54.833333333333336</v>
       </c>
       <c r="K10" t="n">
-        <v>31.4</v>
+        <v>16.0</v>
       </c>
       <c r="L10" t="n">
-        <v>24.8</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="M10" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>3.053435114503817</v>
       </c>
     </row>
     <row r="11">
@@ -766,43 +784,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
-        <v>445.0</v>
+        <v>210.0</v>
       </c>
       <c r="E11" t="n">
-        <v>89.0</v>
+        <v>35.0</v>
       </c>
       <c r="F11" t="n">
-        <v>8900.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1780.0</v>
+        <v>400.0</v>
       </c>
       <c r="H11" t="n">
-        <v>6350.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1270.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K11" t="n">
-        <v>28.4</v>
+        <v>25.5</v>
       </c>
       <c r="L11" t="n">
-        <v>16.0</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="M11" t="n">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.449612403100775</v>
+        <v>1.9626168224299065</v>
       </c>
     </row>
     <row r="12">
@@ -810,43 +828,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>375.0</v>
+        <v>220.0</v>
       </c>
       <c r="E12" t="n">
-        <v>75.0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F12" t="n">
-        <v>7900.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1580.0</v>
+        <v>300.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3950.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I12" t="n">
-        <v>790.0</v>
+        <v>500.0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="K12" t="n">
-        <v>35.6</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="L12" t="n">
-        <v>23.0</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="M12" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.712871287128713</v>
+        <v>1.4864864864864864</v>
       </c>
     </row>
     <row r="13">
@@ -854,43 +872,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0</v>
+        <v>340.0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.25</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F13" t="n">
-        <v>3500.0</v>
+        <v>5450.0</v>
       </c>
       <c r="G13" t="n">
-        <v>875.0</v>
+        <v>908.3333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>3350.0</v>
+        <v>4550.0</v>
       </c>
       <c r="I13" t="n">
-        <v>837.5</v>
+        <v>758.3333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
       <c r="K13" t="n">
-        <v>30.0</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="L13" t="n">
-        <v>19.75</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="M13" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.6630434782608696</v>
+        <v>2.328767123287671</v>
       </c>
     </row>
     <row r="14">
@@ -898,43 +916,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" t="n">
-        <v>340.0</v>
+        <v>275.0</v>
       </c>
       <c r="E14" t="n">
-        <v>85.0</v>
+        <v>55.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7100.0</v>
+        <v>3450.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1775.0</v>
+        <v>690.0</v>
       </c>
       <c r="H14" t="n">
-        <v>5600.0</v>
+        <v>3450.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1400.0</v>
+        <v>690.0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.75</v>
+        <v>45.6</v>
       </c>
       <c r="K14" t="n">
-        <v>21.0</v>
+        <v>40.2</v>
       </c>
       <c r="L14" t="n">
-        <v>21.0</v>
+        <v>32.4</v>
       </c>
       <c r="M14" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6559139784946235</v>
+        <v>2.099236641221374</v>
       </c>
     </row>
     <row r="15">
@@ -942,43 +960,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n">
-        <v>170.0</v>
+        <v>330.0</v>
       </c>
       <c r="E15" t="n">
-        <v>42.5</v>
+        <v>66.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1900.0</v>
+        <v>4600.0</v>
       </c>
       <c r="G15" t="n">
-        <v>475.0</v>
+        <v>920.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1100.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I15" t="n">
-        <v>275.0</v>
+        <v>560.0</v>
       </c>
       <c r="J15" t="n">
-        <v>43.25</v>
+        <v>54.4</v>
       </c>
       <c r="K15" t="n">
-        <v>36.25</v>
+        <v>40.8</v>
       </c>
       <c r="L15" t="n">
-        <v>41.75</v>
+        <v>34.2</v>
       </c>
       <c r="M15" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.9767441860465116</v>
+        <v>2.462686567164179</v>
       </c>
     </row>
     <row r="16">
@@ -986,43 +1004,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2100.0</v>
+        <v>6750.0</v>
       </c>
       <c r="G16" t="n">
-        <v>525.0</v>
+        <v>1687.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2100.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I16" t="n">
-        <v>525.0</v>
+        <v>900.0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5</v>
+        <v>38.5</v>
       </c>
       <c r="K16" t="n">
-        <v>42.75</v>
+        <v>18.75</v>
       </c>
       <c r="L16" t="n">
-        <v>33.0</v>
+        <v>17.75</v>
       </c>
       <c r="M16" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.9230769230769231</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="17">
@@ -1030,43 +1048,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0</v>
+        <v>240.0</v>
       </c>
       <c r="E17" t="n">
-        <v>56.666666666666664</v>
+        <v>60.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1600.0</v>
+        <v>3825.0</v>
       </c>
       <c r="G17" t="n">
-        <v>533.3333333333334</v>
+        <v>956.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2500.0</v>
+        <v>1850.0</v>
       </c>
       <c r="I17" t="n">
-        <v>833.3333333333334</v>
+        <v>462.5</v>
       </c>
       <c r="J17" t="n">
-        <v>49.0</v>
+        <v>37.5</v>
       </c>
       <c r="K17" t="n">
-        <v>24.0</v>
+        <v>42.25</v>
       </c>
       <c r="L17" t="n">
-        <v>15.0</v>
+        <v>32.5</v>
       </c>
       <c r="M17" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.0357142857142856</v>
+        <v>3.116883116883117</v>
       </c>
     </row>
     <row r="18">
@@ -1074,43 +1092,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>120.0</v>
+        <v>140.0</v>
       </c>
       <c r="E18" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="F18" t="n">
         <v>1200.0</v>
       </c>
       <c r="G18" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1200.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I18" t="n">
-        <v>400.0</v>
+        <v>325.0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.666666666666664</v>
+        <v>31.25</v>
       </c>
       <c r="K18" t="n">
-        <v>28.333333333333332</v>
+        <v>31.5</v>
       </c>
       <c r="L18" t="n">
-        <v>38.666666666666664</v>
+        <v>39.25</v>
       </c>
       <c r="M18" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7391304347826086</v>
+        <v>1.6091954022988506</v>
       </c>
     </row>
     <row r="19">
@@ -1118,43 +1136,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>180.0</v>
+        <v>190.0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.0</v>
+        <v>47.5</v>
       </c>
       <c r="F19" t="n">
-        <v>3000.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1000.0</v>
+        <v>550.0</v>
       </c>
       <c r="H19" t="n">
-        <v>2400.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>800.0</v>
+        <v>500.0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.0</v>
+        <v>46.75</v>
       </c>
       <c r="K19" t="n">
-        <v>57.666666666666664</v>
+        <v>38.25</v>
       </c>
       <c r="L19" t="n">
-        <v>39.0</v>
+        <v>33.75</v>
       </c>
       <c r="M19" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -1162,43 +1180,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>170.0</v>
+        <v>275.0</v>
       </c>
       <c r="E20" t="n">
-        <v>56.666666666666664</v>
+        <v>68.75</v>
       </c>
       <c r="F20" t="n">
-        <v>2000.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G20" t="n">
-        <v>666.6666666666666</v>
+        <v>1025.0</v>
       </c>
       <c r="H20" t="n">
-        <v>2200.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I20" t="n">
-        <v>733.3333333333334</v>
+        <v>850.0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.333333333333332</v>
+        <v>41.25</v>
       </c>
       <c r="K20" t="n">
-        <v>48.333333333333336</v>
+        <v>40.0</v>
       </c>
       <c r="L20" t="n">
-        <v>29.333333333333332</v>
+        <v>27.75</v>
       </c>
       <c r="M20" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6984126984126986</v>
+        <v>2.806122448979592</v>
       </c>
     </row>
     <row r="21">
@@ -1206,43 +1224,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>125.0</v>
+        <v>200.0</v>
       </c>
       <c r="E21" t="n">
-        <v>41.666666666666664</v>
+        <v>50.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1700.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G21" t="n">
-        <v>566.6666666666666</v>
+        <v>500.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1650.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I21" t="n">
-        <v>550.0</v>
+        <v>600.0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.333333333333336</v>
+        <v>31.0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.666666666666664</v>
+        <v>20.0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.666666666666668</v>
+        <v>16.25</v>
       </c>
       <c r="M21" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.9841269841269842</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="22">
@@ -1250,43 +1268,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.0</v>
+        <v>195.0</v>
       </c>
       <c r="E22" t="n">
-        <v>40.0</v>
+        <v>48.75</v>
       </c>
       <c r="F22" t="n">
-        <v>1500.0</v>
+        <v>2550.0</v>
       </c>
       <c r="G22" t="n">
-        <v>750.0</v>
+        <v>637.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1900.0</v>
+        <v>1950.0</v>
       </c>
       <c r="I22" t="n">
-        <v>950.0</v>
+        <v>487.5</v>
       </c>
       <c r="J22" t="n">
-        <v>46.0</v>
+        <v>53.0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.0</v>
+        <v>61.25</v>
       </c>
       <c r="L22" t="n">
-        <v>28.0</v>
+        <v>44.5</v>
       </c>
       <c r="M22" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7777777777777777</v>
+        <v>2.2674418604651163</v>
       </c>
     </row>
     <row r="23">
@@ -1294,43 +1312,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E23" t="n">
         <v>50.0</v>
       </c>
-      <c r="E23" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F23" t="n">
-        <v>100.0</v>
+        <v>2350.0</v>
       </c>
       <c r="G23" t="n">
-        <v>50.0</v>
+        <v>587.5</v>
       </c>
       <c r="H23" t="n">
-        <v>200.0</v>
+        <v>1950.0</v>
       </c>
       <c r="I23" t="n">
-        <v>100.0</v>
+        <v>487.5</v>
       </c>
       <c r="J23" t="n">
-        <v>40.5</v>
+        <v>47.5</v>
       </c>
       <c r="K23" t="n">
-        <v>49.5</v>
+        <v>43.75</v>
       </c>
       <c r="L23" t="n">
-        <v>43.5</v>
+        <v>31.25</v>
       </c>
       <c r="M23" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5151515151515151</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="24">
@@ -1338,43 +1356,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" t="n">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="F24" t="n">
-        <v>2900.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1450.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>1400.0</v>
       </c>
       <c r="I24" t="n">
-        <v>700.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.5</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="L24" t="n">
-        <v>28.5</v>
+        <v>38.0</v>
       </c>
       <c r="M24" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="N24" t="n">
-        <v>3.272727272727273</v>
+        <v>2.830188679245283</v>
       </c>
     </row>
     <row r="25">
@@ -1382,43 +1400,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" t="n">
-        <v>120.0</v>
+        <v>145.0</v>
       </c>
       <c r="E25" t="n">
-        <v>60.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F25" t="n">
-        <v>1600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G25" t="n">
-        <v>800.0</v>
+        <v>700.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1600.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I25" t="n">
         <v>800.0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.0</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="K25" t="n">
-        <v>38.5</v>
+        <v>34.0</v>
       </c>
       <c r="L25" t="n">
-        <v>14.0</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="M25" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.4</v>
+        <v>1.8354430379746836</v>
       </c>
     </row>
     <row r="26">
@@ -1426,43 +1444,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" t="n">
-        <v>100.0</v>
+        <v>170.0</v>
       </c>
       <c r="E26" t="n">
-        <v>50.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F26" t="n">
-        <v>1200.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G26" t="n">
-        <v>600.0</v>
+        <v>866.6666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>800.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I26" t="n">
-        <v>400.0</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="J26" t="n">
-        <v>58.5</v>
+        <v>22.0</v>
       </c>
       <c r="K26" t="n">
-        <v>40.0</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="L26" t="n">
-        <v>37.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M26" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5641025641025643</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
@@ -1470,43 +1488,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C27" t="n">
         <v>2.0</v>
       </c>
       <c r="D27" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E27" t="n">
         <v>50.0</v>
       </c>
-      <c r="E27" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F27" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="G27" t="n">
         <v>600.0</v>
       </c>
-      <c r="G27" t="n">
-        <v>300.0</v>
-      </c>
       <c r="H27" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I27" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.5</v>
+        <v>48.5</v>
       </c>
       <c r="K27" t="n">
-        <v>30.5</v>
+        <v>52.0</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>36.0</v>
       </c>
       <c r="M27" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.0416666666666667</v>
+        <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="28">
@@ -1514,43 +1532,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
         <v>2.0</v>
       </c>
       <c r="D28" t="n">
-        <v>95.0</v>
+        <v>50.0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.5</v>
+        <v>25.0</v>
       </c>
       <c r="F28" t="n">
-        <v>950.0</v>
+        <v>100.0</v>
       </c>
       <c r="G28" t="n">
-        <v>475.0</v>
+        <v>50.0</v>
       </c>
       <c r="H28" t="n">
-        <v>750.0</v>
+        <v>200.0</v>
       </c>
       <c r="I28" t="n">
-        <v>375.0</v>
+        <v>100.0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.5</v>
+        <v>40.5</v>
       </c>
       <c r="K28" t="n">
-        <v>52.5</v>
+        <v>49.5</v>
       </c>
       <c r="L28" t="n">
-        <v>36.5</v>
+        <v>43.5</v>
       </c>
       <c r="M28" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9791666666666667</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="29">
@@ -1558,43 +1576,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" t="n">
         <v>2.0</v>
       </c>
       <c r="D29" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="E29" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="F29" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="G29" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H29" t="n">
         <v>200.0</v>
       </c>
-      <c r="H29" t="n">
-        <v>400.0</v>
-      </c>
       <c r="I29" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.5</v>
+        <v>37.5</v>
       </c>
       <c r="K29" t="n">
-        <v>51.5</v>
+        <v>12.0</v>
       </c>
       <c r="L29" t="n">
-        <v>51.5</v>
+        <v>37.5</v>
       </c>
       <c r="M29" t="n">
         <v>23.0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.2765957446808511</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="30">
@@ -1602,43 +1620,43 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="n">
-        <v>60.0</v>
+        <v>110.0</v>
       </c>
       <c r="E30" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="F30" t="n">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G30" t="n">
         <v>800.0</v>
       </c>
       <c r="H30" t="n">
-        <v>500.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I30" t="n">
-        <v>500.0</v>
+        <v>700.0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
       <c r="K30" t="n">
-        <v>72.0</v>
+        <v>8.5</v>
       </c>
       <c r="L30" t="n">
-        <v>40.0</v>
+        <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.3076923076923075</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="31">
@@ -1646,43 +1664,43 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" t="n">
-        <v>10.0</v>
+        <v>180.0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.0</v>
+        <v>90.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>1450.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0</v>
+        <v>700.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="K31" t="n">
-        <v>81.0</v>
+        <v>28.5</v>
       </c>
       <c r="L31" t="n">
-        <v>81.0</v>
+        <v>28.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5263157894736842</v>
+        <v>3.272727272727273</v>
       </c>
     </row>
     <row r="32">
@@ -1690,43 +1708,43 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" t="n">
-        <v>60.0</v>
+        <v>165.0</v>
       </c>
       <c r="E32" t="n">
-        <v>60.0</v>
+        <v>82.5</v>
       </c>
       <c r="F32" t="n">
-        <v>500.0</v>
+        <v>3250.0</v>
       </c>
       <c r="G32" t="n">
-        <v>500.0</v>
+        <v>1625.0</v>
       </c>
       <c r="H32" t="n">
-        <v>900.0</v>
+        <v>400.0</v>
       </c>
       <c r="I32" t="n">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="J32" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.0</v>
+        <v>58.5</v>
       </c>
       <c r="L32" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="M32" t="n">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6666666666666667</v>
+        <v>5.15625</v>
       </c>
     </row>
     <row r="33">
@@ -1734,43 +1752,43 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="E33" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="F33" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="G33" t="n">
-        <v>200.0</v>
+        <v>150.0</v>
       </c>
       <c r="H33" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="I33" t="n">
         <v>200.0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.0</v>
+        <v>21.5</v>
       </c>
       <c r="L33" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="M33" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.1111111111111112</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1778,43 +1796,43 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.0</v>
+        <v>180.0</v>
       </c>
       <c r="E34" t="n">
-        <v>40.0</v>
+        <v>90.0</v>
       </c>
       <c r="F34" t="n">
-        <v>400.0</v>
+        <v>4375.0</v>
       </c>
       <c r="G34" t="n">
-        <v>400.0</v>
+        <v>2187.5</v>
       </c>
       <c r="H34" t="n">
-        <v>400.0</v>
+        <v>900.0</v>
       </c>
       <c r="I34" t="n">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
       <c r="J34" t="n">
-        <v>15.0</v>
+        <v>33.5</v>
       </c>
       <c r="K34" t="n">
-        <v>11.0</v>
+        <v>30.0</v>
       </c>
       <c r="L34" t="n">
-        <v>11.0</v>
+        <v>30.0</v>
       </c>
       <c r="M34" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.0</v>
+        <v>5.142857142857143</v>
       </c>
     </row>
     <row r="35">
@@ -1822,43 +1840,43 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D35" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="E35" t="n">
         <v>30.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="J35" t="n">
-        <v>59.0</v>
+        <v>71.5</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0</v>
+        <v>51.5</v>
       </c>
       <c r="L35" t="n">
-        <v>59.0</v>
+        <v>51.5</v>
       </c>
       <c r="M35" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9375</v>
+        <v>1.2765957446808511</v>
       </c>
     </row>
     <row r="36">
@@ -1866,22 +1884,22 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
       </c>
       <c r="D36" t="n">
-        <v>80.0</v>
+        <v>10.0</v>
       </c>
       <c r="E36" t="n">
-        <v>80.0</v>
+        <v>10.0</v>
       </c>
       <c r="F36" t="n">
-        <v>1600.0</v>
+        <v>0.0</v>
       </c>
       <c r="G36" t="n">
-        <v>1600.0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
@@ -1890,19 +1908,19 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>55.0</v>
+        <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>60.0</v>
+        <v>81.0</v>
       </c>
       <c r="L36" t="n">
-        <v>55.0</v>
+        <v>81.0</v>
       </c>
       <c r="M36" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="N36" t="n">
-        <v>5.0</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="37">
@@ -1910,22 +1928,22 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="F37" t="n">
-        <v>900.0</v>
+        <v>500.0</v>
       </c>
       <c r="G37" t="n">
-        <v>900.0</v>
+        <v>500.0</v>
       </c>
       <c r="H37" t="n">
         <v>900.0</v>
@@ -1934,19 +1952,19 @@
         <v>900.0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="L37" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="M37" t="n">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="N37" t="n">
-        <v>3.823529411764706</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1954,43 +1972,175 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
       </c>
       <c r="D38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n">
         <v>60.0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E40" t="n">
         <v>60.0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F40" t="n">
         <v>900.0</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G40" t="n">
         <v>900.0</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>800.0</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>800.0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J40" t="n">
         <v>21.0</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K40" t="n">
         <v>4.0</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>4.0</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M40" t="n">
         <v>25.0</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.4705882352941178</v>
       </c>
     </row>
   </sheetData>
